--- a/dados/Template SE3 TP4.xlsx
+++ b/dados/Template SE3 TP4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\SEAI---Equipa-F\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F38976B-34E2-41B1-A29B-37B5BCED3A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5DC4B8-255B-4C0D-9EA6-86EAC891FAC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DGA" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="212">
   <si>
     <t>Samples</t>
   </si>
@@ -2179,16 +2179,16 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2211,14 +2211,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2227,47 +2219,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2292,6 +2244,54 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8600,8 +8600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9519,981 +9519,453 @@
       <c r="A12" s="29"/>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:35" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F13" s="111"/>
       <c r="G13" s="20"/>
-      <c r="K13" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="145" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="145" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="145" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" s="145" t="s">
-        <v>15</v>
-      </c>
+      <c r="K13" s="143"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
       <c r="T13" s="145"/>
       <c r="U13" s="146"/>
       <c r="V13" s="145"/>
       <c r="W13" s="145"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="K14" s="158">
-        <v>42250.375</v>
-      </c>
-      <c r="L14" s="157">
-        <v>21</v>
-      </c>
-      <c r="M14" s="157">
-        <v>305</v>
-      </c>
-      <c r="N14" s="157">
-        <v>3.8</v>
-      </c>
-      <c r="O14" s="157">
-        <v>3</v>
-      </c>
-      <c r="P14" s="157">
-        <v>0.09</v>
-      </c>
-      <c r="Q14" s="157">
-        <v>1</v>
-      </c>
-      <c r="R14" s="157">
-        <v>0.09</v>
-      </c>
+      <c r="K14" s="158"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="157"/>
       <c r="T14" s="148"/>
       <c r="U14" s="149"/>
       <c r="V14" s="148"/>
       <c r="W14" s="148"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="K15" s="158">
-        <v>41653</v>
-      </c>
-      <c r="L15" s="157">
-        <v>4</v>
-      </c>
-      <c r="M15" s="157">
-        <v>52.7</v>
-      </c>
-      <c r="N15" s="157">
-        <v>1.45</v>
-      </c>
-      <c r="O15" s="157">
-        <v>1.4</v>
-      </c>
-      <c r="P15" s="157">
-        <v>2.8</v>
-      </c>
-      <c r="Q15" s="157">
-        <v>0.9</v>
-      </c>
-      <c r="R15" s="157">
-        <v>0.6</v>
-      </c>
+      <c r="K15" s="158"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
       <c r="T15" s="148"/>
       <c r="U15" s="149"/>
       <c r="V15" s="148"/>
       <c r="W15" s="148"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="K16" s="158">
-        <v>41086</v>
-      </c>
-      <c r="L16" s="157">
-        <v>4.8</v>
-      </c>
-      <c r="M16" s="157">
-        <v>284.89999999999998</v>
-      </c>
-      <c r="N16" s="157">
-        <v>4.49</v>
-      </c>
-      <c r="O16" s="157">
-        <v>3.6</v>
-      </c>
-      <c r="P16" s="157">
-        <v>6.8</v>
-      </c>
-      <c r="Q16" s="157">
-        <v>4</v>
-      </c>
-      <c r="R16" s="157">
-        <v>2.8</v>
-      </c>
+      <c r="K16" s="158"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="157"/>
       <c r="T16" s="148"/>
       <c r="U16" s="149"/>
       <c r="V16" s="148"/>
       <c r="W16" s="148"/>
     </row>
     <row r="17" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K17" s="158">
-        <v>40514</v>
-      </c>
-      <c r="L17" s="157">
-        <v>17.2</v>
-      </c>
-      <c r="M17" s="157">
-        <v>373.3</v>
-      </c>
-      <c r="N17" s="157">
-        <v>5.61</v>
-      </c>
-      <c r="O17" s="157">
-        <v>5</v>
-      </c>
-      <c r="P17" s="157">
-        <v>6.5</v>
-      </c>
-      <c r="Q17" s="157">
-        <v>4.5</v>
-      </c>
-      <c r="R17" s="157">
-        <v>4.5</v>
-      </c>
+      <c r="K17" s="158"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="157"/>
       <c r="T17" s="148"/>
       <c r="U17" s="149"/>
       <c r="V17" s="148"/>
       <c r="W17" s="148"/>
     </row>
     <row r="18" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K18" s="158">
-        <v>40367</v>
-      </c>
-      <c r="L18" s="155">
-        <v>17.7</v>
-      </c>
-      <c r="M18" s="157">
-        <v>365.7</v>
-      </c>
-      <c r="N18" s="157">
-        <v>6.25</v>
-      </c>
-      <c r="O18" s="157">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P18" s="157">
-        <v>5.3</v>
-      </c>
-      <c r="Q18" s="157">
-        <v>4.5</v>
-      </c>
-      <c r="R18" s="157">
-        <v>5.4</v>
-      </c>
+      <c r="K18" s="158"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
       <c r="T18" s="148"/>
       <c r="U18" s="149"/>
       <c r="V18" s="149"/>
       <c r="W18" s="149"/>
     </row>
     <row r="19" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K19" s="158">
-        <v>40095</v>
-      </c>
-      <c r="L19" s="155">
-        <v>17.7</v>
-      </c>
-      <c r="M19" s="155">
-        <v>384.7</v>
-      </c>
-      <c r="N19" s="156">
-        <v>6.44</v>
-      </c>
-      <c r="O19" s="155">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P19" s="155">
-        <v>3.6</v>
-      </c>
-      <c r="Q19" s="155">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R19" s="155">
-        <v>5.5</v>
-      </c>
+      <c r="K19" s="158"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
       <c r="T19" s="148"/>
       <c r="U19" s="149"/>
       <c r="V19" s="148"/>
       <c r="W19" s="148"/>
     </row>
     <row r="20" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K20" s="158">
-        <v>39869</v>
-      </c>
-      <c r="L20" s="155">
-        <v>10.7</v>
-      </c>
-      <c r="M20" s="155">
-        <v>350.1</v>
-      </c>
-      <c r="N20" s="156">
-        <v>6.46</v>
-      </c>
-      <c r="O20" s="155">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P20" s="155">
-        <v>2.7</v>
-      </c>
-      <c r="Q20" s="155">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R20" s="155">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="K20" s="158"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="155"/>
       <c r="T20" s="148"/>
       <c r="U20" s="149"/>
       <c r="V20" s="148"/>
       <c r="W20" s="148"/>
     </row>
     <row r="21" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K21" s="158">
-        <v>39695</v>
-      </c>
-      <c r="L21" s="155">
-        <v>14.1</v>
-      </c>
-      <c r="M21" s="155">
-        <v>369.3</v>
-      </c>
-      <c r="N21" s="156">
-        <v>6.89</v>
-      </c>
-      <c r="O21" s="155">
-        <v>4.8</v>
-      </c>
-      <c r="P21" s="155">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q21" s="155">
-        <v>4.7</v>
-      </c>
-      <c r="R21" s="155">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="K21" s="158"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="155"/>
       <c r="T21" s="148"/>
       <c r="U21" s="149"/>
       <c r="V21" s="148"/>
       <c r="W21" s="148"/>
     </row>
     <row r="22" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K22" s="158">
-        <v>39521</v>
-      </c>
-      <c r="L22" s="155">
-        <v>13.3</v>
-      </c>
-      <c r="M22" s="155">
-        <v>347.8</v>
-      </c>
-      <c r="N22" s="156">
-        <v>6.64</v>
-      </c>
-      <c r="O22" s="155">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P22" s="155">
-        <v>1.6</v>
-      </c>
-      <c r="Q22" s="155">
-        <v>4.5</v>
-      </c>
-      <c r="R22" s="155">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="K22" s="158"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
       <c r="T22" s="148"/>
       <c r="U22" s="149"/>
       <c r="V22" s="148"/>
       <c r="W22" s="148"/>
     </row>
     <row r="23" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K23" s="158">
-        <v>39394</v>
-      </c>
-      <c r="L23" s="155">
-        <v>14.8</v>
-      </c>
-      <c r="M23" s="155">
-        <v>368.5</v>
-      </c>
-      <c r="N23" s="156">
-        <v>7.41</v>
-      </c>
-      <c r="O23" s="155">
-        <v>4.7</v>
-      </c>
-      <c r="P23" s="155">
-        <v>1.9</v>
-      </c>
-      <c r="Q23" s="155">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R23" s="155">
-        <v>4.5</v>
-      </c>
+      <c r="K23" s="158"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
       <c r="T23" s="148"/>
       <c r="U23" s="149"/>
       <c r="V23" s="148"/>
       <c r="W23" s="148"/>
     </row>
     <row r="24" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K24" s="158">
-        <v>39191</v>
-      </c>
-      <c r="L24" s="155">
-        <v>14.7</v>
-      </c>
-      <c r="M24" s="155">
-        <v>368.7</v>
-      </c>
-      <c r="N24" s="156">
-        <v>7.97</v>
-      </c>
-      <c r="O24" s="155">
-        <v>5.2</v>
-      </c>
-      <c r="P24" s="155">
-        <v>2.6</v>
-      </c>
-      <c r="Q24" s="155">
-        <v>5.8</v>
-      </c>
-      <c r="R24" s="155">
-        <v>4.7</v>
-      </c>
+      <c r="K24" s="158"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="155"/>
       <c r="T24" s="148"/>
       <c r="U24" s="149"/>
       <c r="V24" s="148"/>
       <c r="W24" s="148"/>
     </row>
     <row r="25" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K25" s="158">
-        <v>39051</v>
-      </c>
-      <c r="L25" s="155">
-        <v>23.7</v>
-      </c>
-      <c r="M25" s="155">
-        <v>460</v>
-      </c>
-      <c r="N25" s="156">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="O25" s="155">
-        <v>6.3</v>
-      </c>
-      <c r="P25" s="155">
-        <v>2.6</v>
-      </c>
-      <c r="Q25" s="155">
-        <v>7.2</v>
-      </c>
-      <c r="R25" s="155">
-        <v>4.7</v>
-      </c>
+      <c r="K25" s="158"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="155"/>
       <c r="T25" s="148"/>
       <c r="U25" s="149"/>
       <c r="V25" s="148"/>
       <c r="W25" s="148"/>
     </row>
     <row r="26" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K26" s="158">
-        <v>38748</v>
-      </c>
-      <c r="L26" s="155">
-        <v>20.2</v>
-      </c>
-      <c r="M26" s="155">
-        <v>480.6</v>
-      </c>
-      <c r="N26" s="156">
-        <v>11.23</v>
-      </c>
-      <c r="O26" s="155">
-        <v>6.8</v>
-      </c>
-      <c r="P26" s="155">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="155">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="R26" s="155">
-        <v>3.3</v>
-      </c>
+      <c r="K26" s="158"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
       <c r="T26" s="148"/>
       <c r="U26" s="149"/>
       <c r="V26" s="148"/>
       <c r="W26" s="148"/>
     </row>
     <row r="27" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K27" s="158">
-        <v>38546</v>
-      </c>
-      <c r="L27" s="155">
-        <v>15.7</v>
-      </c>
-      <c r="M27" s="155">
-        <v>390.1</v>
-      </c>
-      <c r="N27" s="156">
-        <v>7.59</v>
-      </c>
-      <c r="O27" s="155">
-        <v>6.4</v>
-      </c>
-      <c r="P27" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="155">
-        <v>7.6</v>
-      </c>
-      <c r="R27" s="155">
-        <v>2.1</v>
-      </c>
+      <c r="K27" s="158"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="155"/>
       <c r="T27" s="148"/>
       <c r="U27" s="149"/>
       <c r="V27" s="148"/>
       <c r="W27" s="148"/>
     </row>
     <row r="28" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K28" s="158">
-        <v>38393</v>
-      </c>
-      <c r="L28" s="155">
-        <v>14.3</v>
-      </c>
-      <c r="M28" s="155">
-        <v>467.4</v>
-      </c>
-      <c r="N28" s="156">
-        <v>11.31</v>
-      </c>
-      <c r="O28" s="155">
-        <v>6.7</v>
-      </c>
-      <c r="P28" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="155">
-        <v>10.4</v>
-      </c>
-      <c r="R28" s="155">
-        <v>2.4</v>
-      </c>
+      <c r="K28" s="158"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
       <c r="T28" s="148"/>
       <c r="U28" s="149"/>
       <c r="V28" s="148"/>
       <c r="W28" s="148"/>
     </row>
     <row r="29" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K29" s="158">
-        <v>38225</v>
-      </c>
-      <c r="L29" s="155">
-        <v>23.9</v>
-      </c>
-      <c r="M29" s="155">
-        <v>528.29999999999995</v>
-      </c>
-      <c r="N29" s="156">
-        <v>12.93</v>
-      </c>
-      <c r="O29" s="155">
-        <v>6.9</v>
-      </c>
-      <c r="P29" s="155">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q29" s="155">
-        <v>10.4</v>
-      </c>
-      <c r="R29" s="155">
-        <v>2</v>
-      </c>
+      <c r="K29" s="158"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
       <c r="T29" s="148"/>
       <c r="U29" s="149"/>
       <c r="V29" s="148"/>
       <c r="W29" s="148"/>
     </row>
     <row r="30" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K30" s="158">
-        <v>38022</v>
-      </c>
-      <c r="L30" s="155">
-        <v>17</v>
-      </c>
-      <c r="M30" s="155">
-        <v>447.9</v>
-      </c>
-      <c r="N30" s="156">
-        <v>8.67</v>
-      </c>
-      <c r="O30" s="155">
-        <v>5.3</v>
-      </c>
-      <c r="P30" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="155">
-        <v>7.7</v>
-      </c>
-      <c r="R30" s="155">
-        <v>1.6</v>
-      </c>
+      <c r="K30" s="158"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="155"/>
       <c r="T30" s="148"/>
       <c r="U30" s="149"/>
       <c r="V30" s="148"/>
       <c r="W30" s="148"/>
     </row>
     <row r="31" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K31" s="158">
-        <v>37819</v>
-      </c>
-      <c r="L31" s="155">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="M31" s="155">
-        <v>438.9</v>
-      </c>
-      <c r="N31" s="156">
-        <v>7.06</v>
-      </c>
-      <c r="O31" s="155">
-        <v>5.9</v>
-      </c>
-      <c r="P31" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="155">
-        <v>10</v>
-      </c>
-      <c r="R31" s="155">
-        <v>0</v>
-      </c>
+      <c r="K31" s="158"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="155"/>
       <c r="T31" s="148"/>
       <c r="U31" s="149"/>
       <c r="V31" s="148"/>
       <c r="W31" s="148"/>
     </row>
     <row r="32" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K32" s="158">
-        <v>37636</v>
-      </c>
-      <c r="L32" s="155">
-        <v>17.3</v>
-      </c>
-      <c r="M32" s="155">
-        <v>376.6</v>
-      </c>
-      <c r="N32" s="156">
-        <v>7.36</v>
-      </c>
-      <c r="O32" s="155">
-        <v>5.8</v>
-      </c>
-      <c r="P32" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="155">
-        <v>10.6</v>
-      </c>
-      <c r="R32" s="155">
-        <v>1.3</v>
-      </c>
+      <c r="K32" s="158"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155"/>
       <c r="T32" s="148"/>
       <c r="U32" s="149"/>
       <c r="V32" s="148"/>
       <c r="W32" s="148"/>
     </row>
     <row r="33" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K33" s="158">
-        <v>37480</v>
-      </c>
-      <c r="L33" s="155">
-        <v>5.4</v>
-      </c>
-      <c r="M33" s="155">
-        <v>219.8</v>
-      </c>
-      <c r="N33" s="156">
-        <v>5.96</v>
-      </c>
-      <c r="O33" s="155">
-        <v>3.6</v>
-      </c>
-      <c r="P33" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="155">
-        <v>6.9</v>
-      </c>
-      <c r="R33" s="155">
-        <v>1.4</v>
-      </c>
+      <c r="K33" s="158"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
       <c r="T33" s="148"/>
       <c r="U33" s="149"/>
       <c r="V33" s="148"/>
       <c r="W33" s="148"/>
     </row>
     <row r="34" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K34" s="158">
-        <v>37274</v>
-      </c>
-      <c r="L34" s="155">
-        <v>2.9</v>
-      </c>
-      <c r="M34" s="155">
-        <v>182.9</v>
-      </c>
-      <c r="N34" s="156">
-        <v>4.8</v>
-      </c>
-      <c r="O34" s="155">
-        <v>3.8</v>
-      </c>
-      <c r="P34" s="155">
-        <v>2.1</v>
-      </c>
-      <c r="Q34" s="155">
-        <v>7</v>
-      </c>
-      <c r="R34" s="155">
-        <v>0.1</v>
-      </c>
+      <c r="K34" s="158"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="155"/>
+      <c r="R34" s="155"/>
       <c r="T34" s="148"/>
       <c r="U34" s="149"/>
       <c r="V34" s="148"/>
       <c r="W34" s="148"/>
     </row>
     <row r="35" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K35" s="158">
-        <v>37110</v>
-      </c>
-      <c r="L35" s="155">
-        <v>13.3</v>
-      </c>
-      <c r="M35" s="155">
-        <v>335.2</v>
-      </c>
-      <c r="N35" s="156">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O35" s="155">
-        <v>5.5</v>
-      </c>
-      <c r="P35" s="155">
-        <v>3.4</v>
-      </c>
-      <c r="Q35" s="155">
-        <v>11</v>
-      </c>
-      <c r="R35" s="155">
-        <v>1.2</v>
-      </c>
+      <c r="K35" s="158"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="155"/>
       <c r="T35" s="148"/>
       <c r="U35" s="149"/>
       <c r="V35" s="148"/>
       <c r="W35" s="148"/>
     </row>
     <row r="36" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K36" s="158">
-        <v>36938</v>
-      </c>
-      <c r="L36" s="155">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M36" s="155">
-        <v>272.60000000000002</v>
-      </c>
-      <c r="N36" s="156">
-        <v>5.95</v>
-      </c>
-      <c r="O36" s="155">
-        <v>4.7</v>
-      </c>
-      <c r="P36" s="155">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q36" s="155">
-        <v>8.6</v>
-      </c>
-      <c r="R36" s="155">
-        <v>0.9</v>
-      </c>
+      <c r="K36" s="158"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
       <c r="T36" s="148"/>
       <c r="U36" s="149"/>
       <c r="V36" s="148"/>
       <c r="W36" s="148"/>
     </row>
     <row r="37" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K37" s="158">
-        <v>36808</v>
-      </c>
-      <c r="L37" s="155">
-        <v>7.8</v>
-      </c>
-      <c r="M37" s="155">
-        <v>206</v>
-      </c>
-      <c r="N37" s="156">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="O37" s="155">
-        <v>3.7</v>
-      </c>
-      <c r="P37" s="155">
-        <v>1.9</v>
-      </c>
-      <c r="Q37" s="155">
-        <v>7</v>
-      </c>
-      <c r="R37" s="155">
-        <v>0.7</v>
-      </c>
+      <c r="K37" s="158"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
       <c r="T37" s="148"/>
       <c r="U37" s="149"/>
       <c r="V37" s="148"/>
       <c r="W37" s="148"/>
     </row>
     <row r="38" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K38" s="158">
-        <v>36567</v>
-      </c>
-      <c r="L38" s="155">
-        <v>7.4</v>
-      </c>
-      <c r="M38" s="155">
-        <v>288</v>
-      </c>
-      <c r="N38" s="156">
-        <v>6.71</v>
-      </c>
-      <c r="O38" s="155">
-        <v>6.1</v>
-      </c>
-      <c r="P38" s="155">
-        <v>3.6</v>
-      </c>
-      <c r="Q38" s="155">
-        <v>10</v>
-      </c>
-      <c r="R38" s="155">
-        <v>2</v>
-      </c>
+      <c r="K38" s="158"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="R38" s="155"/>
       <c r="T38" s="148"/>
       <c r="U38" s="149"/>
       <c r="V38" s="148"/>
       <c r="W38" s="148"/>
     </row>
     <row r="39" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K39" s="158">
-        <v>36364</v>
-      </c>
-      <c r="L39" s="155">
-        <v>11</v>
-      </c>
-      <c r="M39" s="155">
-        <v>382</v>
-      </c>
-      <c r="N39" s="156">
-        <v>7.62</v>
-      </c>
-      <c r="O39" s="155">
-        <v>7</v>
-      </c>
-      <c r="P39" s="155">
-        <v>2.8</v>
-      </c>
-      <c r="Q39" s="155">
-        <v>11</v>
-      </c>
-      <c r="R39" s="155">
-        <v>1.4</v>
-      </c>
+      <c r="K39" s="158"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
       <c r="T39" s="148"/>
       <c r="U39" s="149"/>
       <c r="V39" s="148"/>
       <c r="W39" s="148"/>
     </row>
     <row r="40" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K40" s="158">
-        <v>36202</v>
-      </c>
-      <c r="L40" s="155">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="M40" s="155">
-        <v>382</v>
-      </c>
-      <c r="N40" s="156">
-        <v>6.67</v>
-      </c>
-      <c r="O40" s="155">
-        <v>7.2</v>
-      </c>
-      <c r="P40" s="155">
-        <v>3.3</v>
-      </c>
-      <c r="Q40" s="155">
-        <v>9.6</v>
-      </c>
-      <c r="R40" s="155">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K40" s="158"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="155"/>
+      <c r="R40" s="155"/>
       <c r="T40" s="148"/>
       <c r="U40" s="149"/>
       <c r="V40" s="148"/>
       <c r="W40" s="148"/>
     </row>
     <row r="41" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K41" s="158">
-        <v>35786</v>
-      </c>
-      <c r="L41" s="155">
-        <v>19</v>
-      </c>
-      <c r="M41" s="155">
-        <v>331</v>
-      </c>
-      <c r="N41" s="156">
-        <v>6</v>
-      </c>
-      <c r="O41" s="155">
-        <v>7</v>
-      </c>
-      <c r="P41" s="155">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="155">
-        <v>9</v>
-      </c>
-      <c r="R41" s="155">
-        <v>2</v>
-      </c>
+      <c r="K41" s="158"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
       <c r="T41" s="150"/>
       <c r="U41" s="150"/>
       <c r="V41" s="150"/>
       <c r="W41" s="150"/>
     </row>
     <row r="42" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K42" s="158">
-        <v>35606</v>
-      </c>
-      <c r="L42" s="155">
-        <v>7</v>
-      </c>
-      <c r="M42" s="155">
-        <v>225</v>
-      </c>
-      <c r="N42" s="156">
-        <v>5</v>
-      </c>
-      <c r="O42" s="155">
-        <v>7</v>
-      </c>
-      <c r="P42" s="155">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="155">
-        <v>8</v>
-      </c>
-      <c r="R42" s="155">
-        <v>2</v>
-      </c>
+      <c r="K42" s="158"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="155"/>
+      <c r="Q42" s="155"/>
+      <c r="R42" s="155"/>
     </row>
     <row r="43" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K43" s="158">
-        <v>35432</v>
-      </c>
-      <c r="L43" s="155">
-        <v>15</v>
-      </c>
-      <c r="M43" s="155">
-        <v>345</v>
-      </c>
-      <c r="N43" s="156">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O43" s="155">
-        <v>7</v>
-      </c>
-      <c r="P43" s="155">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="155">
-        <v>7</v>
-      </c>
-      <c r="R43" s="155">
-        <v>1</v>
-      </c>
+      <c r="K43" s="158"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="155"/>
+      <c r="P43" s="155"/>
+      <c r="Q43" s="155"/>
+      <c r="R43" s="155"/>
     </row>
     <row r="44" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K44" s="158">
-        <v>35247</v>
-      </c>
-      <c r="L44" s="155">
-        <v>8</v>
-      </c>
-      <c r="M44" s="155">
-        <v>335</v>
-      </c>
-      <c r="N44" s="156">
-        <v>5</v>
-      </c>
-      <c r="O44" s="155">
-        <v>7</v>
-      </c>
-      <c r="P44" s="155">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="155">
-        <v>6</v>
-      </c>
-      <c r="R44" s="155">
-        <v>1</v>
-      </c>
+      <c r="K44" s="158"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="155"/>
+      <c r="Q44" s="155"/>
+      <c r="R44" s="155"/>
     </row>
     <row r="45" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K45" s="158">
-        <v>34267</v>
-      </c>
-      <c r="L45" s="155">
-        <v>19</v>
-      </c>
-      <c r="M45" s="155">
-        <v>193</v>
-      </c>
-      <c r="N45" s="156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O45" s="155">
-        <v>3</v>
-      </c>
-      <c r="P45" s="155">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="155">
-        <v>4</v>
-      </c>
-      <c r="R45" s="155">
-        <v>0</v>
-      </c>
+      <c r="K45" s="158"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="155"/>
+      <c r="R45" s="155"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K14:R45">
@@ -12053,7 +11525,7 @@
         <f>SUM(E2:E8)/SUM(C2:C8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="194">
+      <c r="I2" s="193">
         <f>DGA!AI3</f>
         <v>34267</v>
       </c>
@@ -12079,7 +11551,7 @@
         <f>SUM(P2:P8)/SUM(N2:N8)</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="T2" s="194">
+      <c r="T2" s="193">
         <f>DGA!H3</f>
         <v>40367</v>
       </c>
@@ -12126,7 +11598,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="28"/>
-      <c r="I3" s="195"/>
+      <c r="I3" s="194"/>
       <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
@@ -12146,7 +11618,7 @@
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="28"/>
-      <c r="T3" s="195"/>
+      <c r="T3" s="194"/>
       <c r="W3" s="31" t="s">
         <v>2</v>
       </c>
@@ -12191,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="I4" s="195"/>
+      <c r="I4" s="194"/>
       <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
@@ -12210,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
-      <c r="T4" s="195"/>
+      <c r="T4" s="194"/>
       <c r="W4" s="31" t="s">
         <v>5</v>
       </c>
@@ -12255,7 +11727,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="I5" s="195"/>
+      <c r="I5" s="194"/>
       <c r="L5" s="11" t="s">
         <v>8</v>
       </c>
@@ -12274,7 +11746,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="20"/>
-      <c r="T5" s="195"/>
+      <c r="T5" s="194"/>
       <c r="W5" s="31" t="s">
         <v>7</v>
       </c>
@@ -12319,7 +11791,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="20"/>
-      <c r="I6" s="195"/>
+      <c r="I6" s="194"/>
       <c r="L6" s="11" t="s">
         <v>10</v>
       </c>
@@ -12338,7 +11810,7 @@
         <v>3</v>
       </c>
       <c r="Q6" s="20"/>
-      <c r="T6" s="195"/>
+      <c r="T6" s="194"/>
       <c r="W6" s="31" t="s">
         <v>9</v>
       </c>
@@ -12383,7 +11855,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="I7" s="195"/>
+      <c r="I7" s="194"/>
       <c r="L7" s="11" t="s">
         <v>12</v>
       </c>
@@ -12402,7 +11874,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="20"/>
-      <c r="T7" s="195"/>
+      <c r="T7" s="194"/>
       <c r="W7" s="31" t="s">
         <v>11</v>
       </c>
@@ -12447,7 +11919,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="I8" s="195"/>
+      <c r="I8" s="194"/>
       <c r="L8" s="32" t="s">
         <v>14</v>
       </c>
@@ -12466,7 +11938,7 @@
         <v>5</v>
       </c>
       <c r="Q8" s="20"/>
-      <c r="T8" s="195"/>
+      <c r="T8" s="194"/>
       <c r="W8" s="31" t="s">
         <v>13</v>
       </c>
@@ -12570,24 +12042,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="193"/>
-      <c r="S13" s="193"/>
-      <c r="T13" s="193"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="195"/>
+      <c r="T13" s="195"/>
       <c r="AA13" s="31" t="s">
         <v>27</v>
       </c>
@@ -12599,24 +12071,24 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="193"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="193"/>
-      <c r="T14" s="193"/>
+      <c r="A14" s="195"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="L14" s="195"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="195"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="195"/>
       <c r="AA14" s="31" t="s">
         <v>28</v>
       </c>
@@ -12706,7 +12178,7 @@
         <f>SUM(E17:E23)/SUM(C17:C23)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="194">
+      <c r="I17" s="193">
         <f>DGA!AH3</f>
         <v>35247</v>
       </c>
@@ -12732,7 +12204,7 @@
         <f>SUM(P17:P23)/SUM(N17:N23)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T17" s="194">
+      <c r="T17" s="193">
         <f>DGA!G3</f>
         <v>40514</v>
       </c>
@@ -12757,7 +12229,7 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="28"/>
-      <c r="I18" s="195"/>
+      <c r="I18" s="194"/>
       <c r="L18" s="11" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12249,7 @@
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="28"/>
-      <c r="T18" s="195"/>
+      <c r="T18" s="194"/>
       <c r="AA18" s="30" t="s">
         <v>23</v>
       </c>
@@ -12801,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="20"/>
-      <c r="I19" s="195"/>
+      <c r="I19" s="194"/>
       <c r="L19" s="11" t="s">
         <v>6</v>
       </c>
@@ -12820,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="20"/>
-      <c r="T19" s="195"/>
+      <c r="T19" s="194"/>
       <c r="AA19" s="31" t="s">
         <v>25</v>
       </c>
@@ -12844,7 +12316,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="I20" s="195"/>
+      <c r="I20" s="194"/>
       <c r="L20" s="11" t="s">
         <v>8</v>
       </c>
@@ -12863,7 +12335,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="20"/>
-      <c r="T20" s="195"/>
+      <c r="T20" s="194"/>
       <c r="AA20" s="31" t="s">
         <v>27</v>
       </c>
@@ -12887,7 +12359,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="I21" s="195"/>
+      <c r="I21" s="194"/>
       <c r="L21" s="11" t="s">
         <v>10</v>
       </c>
@@ -12906,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="Q21" s="20"/>
-      <c r="T21" s="195"/>
+      <c r="T21" s="194"/>
       <c r="AA21" s="31" t="s">
         <v>28</v>
       </c>
@@ -12930,7 +12402,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="20"/>
-      <c r="I22" s="195"/>
+      <c r="I22" s="194"/>
       <c r="L22" s="11" t="s">
         <v>12</v>
       </c>
@@ -12949,7 +12421,7 @@
         <v>3</v>
       </c>
       <c r="Q22" s="20"/>
-      <c r="T22" s="195"/>
+      <c r="T22" s="194"/>
       <c r="AA22" s="31" t="s">
         <v>29</v>
       </c>
@@ -12973,7 +12445,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="20"/>
-      <c r="I23" s="195"/>
+      <c r="I23" s="194"/>
       <c r="L23" s="32" t="s">
         <v>14</v>
       </c>
@@ -12992,7 +12464,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="20"/>
-      <c r="T23" s="195"/>
+      <c r="T23" s="194"/>
       <c r="AA23" s="31" t="s">
         <v>31</v>
       </c>
@@ -13045,47 +12517,47 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="193"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
+      <c r="A28" s="195"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="195"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="195"/>
+      <c r="T28" s="195"/>
       <c r="AA28" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="193"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="193"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="195"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="195"/>
+      <c r="T29" s="195"/>
       <c r="AA29" s="31" t="s">
         <v>29</v>
       </c>
@@ -13154,7 +12626,7 @@
         <f>SUM(E32:E38)/SUM(C32:C38)</f>
         <v>1</v>
       </c>
-      <c r="I32" s="194">
+      <c r="I32" s="193">
         <f>DGA!AG3</f>
         <v>35432</v>
       </c>
@@ -13180,7 +12652,7 @@
         <f>SUM(P32:P38)/SUM(N32:N38)</f>
         <v>1</v>
       </c>
-      <c r="T32" s="194">
+      <c r="T32" s="193">
         <f>DGA!F3</f>
         <v>41086</v>
       </c>
@@ -13208,7 +12680,7 @@
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="28"/>
-      <c r="I33" s="195"/>
+      <c r="I33" s="194"/>
       <c r="L33" s="11" t="s">
         <v>4</v>
       </c>
@@ -13228,7 +12700,7 @@
       </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="28"/>
-      <c r="T33" s="195"/>
+      <c r="T33" s="194"/>
       <c r="AA33" s="31" t="s">
         <v>25</v>
       </c>
@@ -13252,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="20"/>
-      <c r="I34" s="195"/>
+      <c r="I34" s="194"/>
       <c r="L34" s="11" t="s">
         <v>6</v>
       </c>
@@ -13271,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="20"/>
-      <c r="T34" s="195"/>
+      <c r="T34" s="194"/>
       <c r="AA34" s="31" t="s">
         <v>27</v>
       </c>
@@ -13295,7 +12767,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="20"/>
-      <c r="I35" s="195"/>
+      <c r="I35" s="194"/>
       <c r="L35" s="11" t="s">
         <v>8</v>
       </c>
@@ -13314,7 +12786,7 @@
         <v>3</v>
       </c>
       <c r="Q35" s="20"/>
-      <c r="T35" s="195"/>
+      <c r="T35" s="194"/>
       <c r="AA35" s="31" t="s">
         <v>28</v>
       </c>
@@ -13338,7 +12810,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="20"/>
-      <c r="I36" s="195"/>
+      <c r="I36" s="194"/>
       <c r="L36" s="11" t="s">
         <v>10</v>
       </c>
@@ -13357,7 +12829,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="20"/>
-      <c r="T36" s="195"/>
+      <c r="T36" s="194"/>
       <c r="AA36" s="31" t="s">
         <v>29</v>
       </c>
@@ -13381,7 +12853,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="20"/>
-      <c r="I37" s="195"/>
+      <c r="I37" s="194"/>
       <c r="L37" s="11" t="s">
         <v>12</v>
       </c>
@@ -13400,7 +12872,7 @@
         <v>3</v>
       </c>
       <c r="Q37" s="20"/>
-      <c r="T37" s="195"/>
+      <c r="T37" s="194"/>
       <c r="AA37" s="31" t="s">
         <v>31</v>
       </c>
@@ -13424,7 +12896,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="20"/>
-      <c r="I38" s="195"/>
+      <c r="I38" s="194"/>
       <c r="L38" s="32" t="s">
         <v>14</v>
       </c>
@@ -13443,7 +12915,7 @@
         <v>5</v>
       </c>
       <c r="Q38" s="20"/>
-      <c r="T38" s="195"/>
+      <c r="T38" s="194"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA39" s="30" t="s">
@@ -13497,47 +12969,47 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="193"/>
-      <c r="B43" s="193"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="L43" s="193"/>
-      <c r="M43" s="193"/>
-      <c r="N43" s="193"/>
-      <c r="O43" s="193"/>
-      <c r="P43" s="193"/>
-      <c r="Q43" s="193"/>
-      <c r="R43" s="193"/>
-      <c r="S43" s="193"/>
-      <c r="T43" s="193"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="195"/>
+      <c r="R43" s="195"/>
+      <c r="S43" s="195"/>
+      <c r="T43" s="195"/>
       <c r="AA43" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="193"/>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="L44" s="193"/>
-      <c r="M44" s="193"/>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
-      <c r="P44" s="193"/>
-      <c r="Q44" s="193"/>
-      <c r="R44" s="193"/>
-      <c r="S44" s="193"/>
-      <c r="T44" s="193"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="195"/>
+      <c r="P44" s="195"/>
+      <c r="Q44" s="195"/>
+      <c r="R44" s="195"/>
+      <c r="S44" s="195"/>
+      <c r="T44" s="195"/>
       <c r="AA44" s="31" t="s">
         <v>31</v>
       </c>
@@ -13605,7 +13077,7 @@
         <f>SUM(E47:E53)/SUM(C47:C53)</f>
         <v>1</v>
       </c>
-      <c r="I47" s="194">
+      <c r="I47" s="193">
         <f>DGA!AF3</f>
         <v>35606</v>
       </c>
@@ -13631,7 +13103,7 @@
         <f>SUM(P47:P53)/SUM(N47:N53)</f>
         <v>1</v>
       </c>
-      <c r="T47" s="194">
+      <c r="T47" s="193">
         <f>DGA!E3</f>
         <v>41653</v>
       </c>
@@ -13659,7 +13131,7 @@
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="28"/>
-      <c r="I48" s="195"/>
+      <c r="I48" s="194"/>
       <c r="L48" s="11" t="s">
         <v>4</v>
       </c>
@@ -13679,7 +13151,7 @@
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="28"/>
-      <c r="T48" s="195"/>
+      <c r="T48" s="194"/>
       <c r="AA48" s="31" t="s">
         <v>27</v>
       </c>
@@ -13703,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="20"/>
-      <c r="I49" s="195"/>
+      <c r="I49" s="194"/>
       <c r="L49" s="11" t="s">
         <v>6</v>
       </c>
@@ -13722,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="20"/>
-      <c r="T49" s="195"/>
+      <c r="T49" s="194"/>
       <c r="AA49" s="31" t="s">
         <v>28</v>
       </c>
@@ -13746,7 +13218,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="20"/>
-      <c r="I50" s="195"/>
+      <c r="I50" s="194"/>
       <c r="L50" s="11" t="s">
         <v>8</v>
       </c>
@@ -13765,7 +13237,7 @@
         <v>3</v>
       </c>
       <c r="Q50" s="20"/>
-      <c r="T50" s="195"/>
+      <c r="T50" s="194"/>
       <c r="AA50" s="31" t="s">
         <v>29</v>
       </c>
@@ -13789,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="20"/>
-      <c r="I51" s="195"/>
+      <c r="I51" s="194"/>
       <c r="L51" s="11" t="s">
         <v>10</v>
       </c>
@@ -13808,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="Q51" s="20"/>
-      <c r="T51" s="195"/>
+      <c r="T51" s="194"/>
       <c r="AA51" s="31" t="s">
         <v>31</v>
       </c>
@@ -13832,7 +13304,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="20"/>
-      <c r="I52" s="195"/>
+      <c r="I52" s="194"/>
       <c r="L52" s="11" t="s">
         <v>12</v>
       </c>
@@ -13851,7 +13323,7 @@
         <v>3</v>
       </c>
       <c r="Q52" s="20"/>
-      <c r="T52" s="195"/>
+      <c r="T52" s="194"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
@@ -13872,7 +13344,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="20"/>
-      <c r="I53" s="195"/>
+      <c r="I53" s="194"/>
       <c r="L53" s="32" t="s">
         <v>14</v>
       </c>
@@ -13891,7 +13363,7 @@
         <v>5</v>
       </c>
       <c r="Q53" s="20"/>
-      <c r="T53" s="195"/>
+      <c r="T53" s="194"/>
       <c r="AA53" s="30" t="s">
         <v>23</v>
       </c>
@@ -13948,47 +13420,47 @@
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A58" s="193"/>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
-      <c r="F58" s="193"/>
-      <c r="G58" s="193"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="193"/>
-      <c r="L58" s="193"/>
-      <c r="M58" s="193"/>
-      <c r="N58" s="193"/>
-      <c r="O58" s="193"/>
-      <c r="P58" s="193"/>
-      <c r="Q58" s="193"/>
-      <c r="R58" s="193"/>
-      <c r="S58" s="193"/>
-      <c r="T58" s="193"/>
+      <c r="A58" s="195"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="195"/>
+      <c r="P58" s="195"/>
+      <c r="Q58" s="195"/>
+      <c r="R58" s="195"/>
+      <c r="S58" s="195"/>
+      <c r="T58" s="195"/>
       <c r="AA58" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A59" s="193"/>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="193"/>
-      <c r="G59" s="193"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="193"/>
-      <c r="L59" s="193"/>
-      <c r="M59" s="193"/>
-      <c r="N59" s="193"/>
-      <c r="O59" s="193"/>
-      <c r="P59" s="193"/>
-      <c r="Q59" s="193"/>
-      <c r="R59" s="193"/>
-      <c r="S59" s="193"/>
-      <c r="T59" s="193"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="L59" s="195"/>
+      <c r="M59" s="195"/>
+      <c r="N59" s="195"/>
+      <c r="O59" s="195"/>
+      <c r="P59" s="195"/>
+      <c r="Q59" s="195"/>
+      <c r="R59" s="195"/>
+      <c r="S59" s="195"/>
+      <c r="T59" s="195"/>
     </row>
     <row r="60" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ60" s="102"/>
@@ -14097,7 +13569,7 @@
         <f>SUM(E62:E68)/SUM(C62:C68)</f>
         <v>1</v>
       </c>
-      <c r="I62" s="194">
+      <c r="I62" s="193">
         <f>DGA!AE3</f>
         <v>35786</v>
       </c>
@@ -14123,7 +13595,7 @@
         <f>SUM(P62:P68)/SUM(N62:N68)</f>
         <v>1</v>
       </c>
-      <c r="T62" s="194">
+      <c r="T62" s="193">
         <f>DGA!D3</f>
         <v>42250.375</v>
       </c>
@@ -14172,7 +13644,7 @@
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="28"/>
-      <c r="I63" s="195"/>
+      <c r="I63" s="194"/>
       <c r="L63" s="11" t="s">
         <v>4</v>
       </c>
@@ -14192,7 +13664,7 @@
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="28"/>
-      <c r="T63" s="195"/>
+      <c r="T63" s="194"/>
       <c r="AJ63" s="31" t="s">
         <v>7</v>
       </c>
@@ -14237,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="20"/>
-      <c r="I64" s="195"/>
+      <c r="I64" s="194"/>
       <c r="L64" s="11" t="s">
         <v>6</v>
       </c>
@@ -14256,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="20"/>
-      <c r="T64" s="195"/>
+      <c r="T64" s="194"/>
       <c r="AJ64" s="31" t="s">
         <v>9</v>
       </c>
@@ -14301,7 +13773,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="20"/>
-      <c r="I65" s="195"/>
+      <c r="I65" s="194"/>
       <c r="L65" s="11" t="s">
         <v>8</v>
       </c>
@@ -14320,7 +13792,7 @@
         <v>3</v>
       </c>
       <c r="Q65" s="20"/>
-      <c r="T65" s="195"/>
+      <c r="T65" s="194"/>
       <c r="X65" s="112"/>
       <c r="AJ65" s="31" t="s">
         <v>11</v>
@@ -14366,7 +13838,7 @@
         <v>3</v>
       </c>
       <c r="F66" s="20"/>
-      <c r="I66" s="195"/>
+      <c r="I66" s="194"/>
       <c r="L66" s="11" t="s">
         <v>10</v>
       </c>
@@ -14385,7 +13857,7 @@
         <v>3</v>
       </c>
       <c r="Q66" s="20"/>
-      <c r="T66" s="195"/>
+      <c r="T66" s="194"/>
       <c r="X66" s="112"/>
       <c r="AJ66" s="31" t="s">
         <v>13</v>
@@ -14431,7 +13903,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="20"/>
-      <c r="I67" s="195"/>
+      <c r="I67" s="194"/>
       <c r="L67" s="11" t="s">
         <v>12</v>
       </c>
@@ -14450,7 +13922,7 @@
         <v>3</v>
       </c>
       <c r="Q67" s="20"/>
-      <c r="T67" s="195"/>
+      <c r="T67" s="194"/>
       <c r="X67" s="112"/>
       <c r="AJ67" s="31" t="s">
         <v>15</v>
@@ -14496,7 +13968,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="20"/>
-      <c r="I68" s="195"/>
+      <c r="I68" s="194"/>
       <c r="L68" s="32" t="s">
         <v>14</v>
       </c>
@@ -14515,7 +13987,7 @@
         <v>5</v>
       </c>
       <c r="Q68" s="20"/>
-      <c r="T68" s="195"/>
+      <c r="T68" s="194"/>
       <c r="X68" s="112"/>
     </row>
     <row r="69" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14561,26 +14033,26 @@
       <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="193"/>
-      <c r="B73" s="193"/>
-      <c r="C73" s="193"/>
-      <c r="D73" s="193"/>
-      <c r="E73" s="193"/>
-      <c r="F73" s="193"/>
-      <c r="G73" s="193"/>
-      <c r="H73" s="193"/>
-      <c r="I73" s="193"/>
+      <c r="A73" s="195"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
+      <c r="F73" s="195"/>
+      <c r="G73" s="195"/>
+      <c r="H73" s="195"/>
+      <c r="I73" s="195"/>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="193"/>
-      <c r="B74" s="193"/>
-      <c r="C74" s="193"/>
-      <c r="D74" s="193"/>
-      <c r="E74" s="193"/>
-      <c r="F74" s="193"/>
-      <c r="G74" s="193"/>
-      <c r="H74" s="193"/>
-      <c r="I74" s="193"/>
+      <c r="A74" s="195"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="195"/>
+      <c r="H74" s="195"/>
+      <c r="I74" s="195"/>
     </row>
     <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14625,7 +14097,7 @@
         <f>SUM(E77:E83)/SUM(C77:C83)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I77" s="194">
+      <c r="I77" s="193">
         <f>DGA!AD3</f>
         <v>36202</v>
       </c>
@@ -14650,7 +14122,7 @@
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="28"/>
-      <c r="I78" s="195"/>
+      <c r="I78" s="194"/>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
@@ -14671,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="20"/>
-      <c r="I79" s="195"/>
+      <c r="I79" s="194"/>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
@@ -14692,7 +14164,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="20"/>
-      <c r="I80" s="195"/>
+      <c r="I80" s="194"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -14713,7 +14185,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="20"/>
-      <c r="I81" s="195"/>
+      <c r="I81" s="194"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
@@ -14734,7 +14206,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="20"/>
-      <c r="I82" s="195"/>
+      <c r="I82" s="194"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
@@ -14755,7 +14227,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="20"/>
-      <c r="I83" s="195"/>
+      <c r="I83" s="194"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14781,26 +14253,26 @@
       <c r="D87" s="36"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="193"/>
-      <c r="B88" s="193"/>
-      <c r="C88" s="193"/>
-      <c r="D88" s="193"/>
-      <c r="E88" s="193"/>
-      <c r="F88" s="193"/>
-      <c r="G88" s="193"/>
-      <c r="H88" s="193"/>
-      <c r="I88" s="193"/>
+      <c r="A88" s="195"/>
+      <c r="B88" s="195"/>
+      <c r="C88" s="195"/>
+      <c r="D88" s="195"/>
+      <c r="E88" s="195"/>
+      <c r="F88" s="195"/>
+      <c r="G88" s="195"/>
+      <c r="H88" s="195"/>
+      <c r="I88" s="195"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="193"/>
-      <c r="B89" s="193"/>
-      <c r="C89" s="193"/>
-      <c r="D89" s="193"/>
-      <c r="E89" s="193"/>
-      <c r="F89" s="193"/>
-      <c r="G89" s="193"/>
-      <c r="H89" s="193"/>
-      <c r="I89" s="193"/>
+      <c r="A89" s="195"/>
+      <c r="B89" s="195"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="195"/>
+      <c r="E89" s="195"/>
+      <c r="F89" s="195"/>
+      <c r="G89" s="195"/>
+      <c r="H89" s="195"/>
+      <c r="I89" s="195"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14845,7 +14317,7 @@
         <f>SUM(E92:E98)/SUM(C92:C98)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I92" s="194">
+      <c r="I92" s="193">
         <f>DGA!AC3</f>
         <v>36364</v>
       </c>
@@ -14870,7 +14342,7 @@
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="28"/>
-      <c r="I93" s="195"/>
+      <c r="I93" s="194"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
@@ -14891,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="20"/>
-      <c r="I94" s="195"/>
+      <c r="I94" s="194"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
@@ -14912,7 +14384,7 @@
         <v>3</v>
       </c>
       <c r="F95" s="20"/>
-      <c r="I95" s="195"/>
+      <c r="I95" s="194"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
@@ -14933,7 +14405,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="20"/>
-      <c r="I96" s="195"/>
+      <c r="I96" s="194"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -14954,7 +14426,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="20"/>
-      <c r="I97" s="195"/>
+      <c r="I97" s="194"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
@@ -14975,7 +14447,7 @@
         <v>5</v>
       </c>
       <c r="F98" s="20"/>
-      <c r="I98" s="195"/>
+      <c r="I98" s="194"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15001,26 +14473,26 @@
       <c r="D102" s="36"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="193"/>
-      <c r="B103" s="193"/>
-      <c r="C103" s="193"/>
-      <c r="D103" s="193"/>
-      <c r="E103" s="193"/>
-      <c r="F103" s="193"/>
-      <c r="G103" s="193"/>
-      <c r="H103" s="193"/>
-      <c r="I103" s="193"/>
+      <c r="A103" s="195"/>
+      <c r="B103" s="195"/>
+      <c r="C103" s="195"/>
+      <c r="D103" s="195"/>
+      <c r="E103" s="195"/>
+      <c r="F103" s="195"/>
+      <c r="G103" s="195"/>
+      <c r="H103" s="195"/>
+      <c r="I103" s="195"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="193"/>
-      <c r="B104" s="193"/>
-      <c r="C104" s="193"/>
-      <c r="D104" s="193"/>
-      <c r="E104" s="193"/>
-      <c r="F104" s="193"/>
-      <c r="G104" s="193"/>
-      <c r="H104" s="193"/>
-      <c r="I104" s="193"/>
+      <c r="A104" s="195"/>
+      <c r="B104" s="195"/>
+      <c r="C104" s="195"/>
+      <c r="D104" s="195"/>
+      <c r="E104" s="195"/>
+      <c r="F104" s="195"/>
+      <c r="G104" s="195"/>
+      <c r="H104" s="195"/>
+      <c r="I104" s="195"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15065,7 +14537,7 @@
         <f>SUM(E107:E113)/SUM(C107:C113)</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="I107" s="194">
+      <c r="I107" s="193">
         <f>DGA!AB3</f>
         <v>36567</v>
       </c>
@@ -15090,7 +14562,7 @@
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="28"/>
-      <c r="I108" s="195"/>
+      <c r="I108" s="194"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
@@ -15111,7 +14583,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="20"/>
-      <c r="I109" s="195"/>
+      <c r="I109" s="194"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
@@ -15132,7 +14604,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="20"/>
-      <c r="I110" s="195"/>
+      <c r="I110" s="194"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
@@ -15153,7 +14625,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="20"/>
-      <c r="I111" s="195"/>
+      <c r="I111" s="194"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
@@ -15174,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="F112" s="20"/>
-      <c r="I112" s="195"/>
+      <c r="I112" s="194"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
@@ -15195,7 +14667,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="20"/>
-      <c r="I113" s="195"/>
+      <c r="I113" s="194"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15221,26 +14693,26 @@
       <c r="D117" s="36"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="193"/>
-      <c r="B118" s="193"/>
-      <c r="C118" s="193"/>
-      <c r="D118" s="193"/>
-      <c r="E118" s="193"/>
-      <c r="F118" s="193"/>
-      <c r="G118" s="193"/>
-      <c r="H118" s="193"/>
-      <c r="I118" s="193"/>
+      <c r="A118" s="195"/>
+      <c r="B118" s="195"/>
+      <c r="C118" s="195"/>
+      <c r="D118" s="195"/>
+      <c r="E118" s="195"/>
+      <c r="F118" s="195"/>
+      <c r="G118" s="195"/>
+      <c r="H118" s="195"/>
+      <c r="I118" s="195"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="193"/>
-      <c r="B119" s="193"/>
-      <c r="C119" s="193"/>
-      <c r="D119" s="193"/>
-      <c r="E119" s="193"/>
-      <c r="F119" s="193"/>
-      <c r="G119" s="193"/>
-      <c r="H119" s="193"/>
-      <c r="I119" s="193"/>
+      <c r="A119" s="195"/>
+      <c r="B119" s="195"/>
+      <c r="C119" s="195"/>
+      <c r="D119" s="195"/>
+      <c r="E119" s="195"/>
+      <c r="F119" s="195"/>
+      <c r="G119" s="195"/>
+      <c r="H119" s="195"/>
+      <c r="I119" s="195"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15285,7 +14757,7 @@
         <f>SUM(E122:E128)/SUM(C122:C128)</f>
         <v>1</v>
       </c>
-      <c r="I122" s="194">
+      <c r="I122" s="193">
         <f>DGA!$AA$3</f>
         <v>36808</v>
       </c>
@@ -15312,7 +14784,7 @@
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="28"/>
-      <c r="I123" s="195"/>
+      <c r="I123" s="194"/>
       <c r="J123" s="114"/>
       <c r="K123" s="114"/>
     </row>
@@ -15335,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="20"/>
-      <c r="I124" s="195"/>
+      <c r="I124" s="194"/>
       <c r="J124" s="114"/>
       <c r="K124" s="114"/>
     </row>
@@ -15358,7 +14830,7 @@
         <v>3</v>
       </c>
       <c r="F125" s="20"/>
-      <c r="I125" s="195"/>
+      <c r="I125" s="194"/>
       <c r="J125" s="114"/>
       <c r="K125" s="114"/>
     </row>
@@ -15381,7 +14853,7 @@
         <v>3</v>
       </c>
       <c r="F126" s="20"/>
-      <c r="I126" s="195"/>
+      <c r="I126" s="194"/>
       <c r="J126" s="114"/>
       <c r="K126" s="114"/>
     </row>
@@ -15404,7 +14876,7 @@
         <v>3</v>
       </c>
       <c r="F127" s="20"/>
-      <c r="I127" s="195"/>
+      <c r="I127" s="194"/>
       <c r="J127" s="114"/>
       <c r="K127" s="114"/>
     </row>
@@ -15427,7 +14899,7 @@
         <v>5</v>
       </c>
       <c r="F128" s="20"/>
-      <c r="I128" s="195"/>
+      <c r="I128" s="194"/>
       <c r="J128" s="114"/>
       <c r="K128" s="114"/>
     </row>
@@ -15455,28 +14927,28 @@
       <c r="D132" s="36"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="193"/>
-      <c r="B133" s="193"/>
-      <c r="C133" s="193"/>
-      <c r="D133" s="193"/>
-      <c r="E133" s="193"/>
-      <c r="F133" s="193"/>
-      <c r="G133" s="193"/>
-      <c r="H133" s="193"/>
-      <c r="I133" s="193"/>
+      <c r="A133" s="195"/>
+      <c r="B133" s="195"/>
+      <c r="C133" s="195"/>
+      <c r="D133" s="195"/>
+      <c r="E133" s="195"/>
+      <c r="F133" s="195"/>
+      <c r="G133" s="195"/>
+      <c r="H133" s="195"/>
+      <c r="I133" s="195"/>
       <c r="J133" s="115"/>
       <c r="K133" s="115"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="193"/>
-      <c r="B134" s="193"/>
-      <c r="C134" s="193"/>
-      <c r="D134" s="193"/>
-      <c r="E134" s="193"/>
-      <c r="F134" s="193"/>
-      <c r="G134" s="193"/>
-      <c r="H134" s="193"/>
-      <c r="I134" s="193"/>
+      <c r="A134" s="195"/>
+      <c r="B134" s="195"/>
+      <c r="C134" s="195"/>
+      <c r="D134" s="195"/>
+      <c r="E134" s="195"/>
+      <c r="F134" s="195"/>
+      <c r="G134" s="195"/>
+      <c r="H134" s="195"/>
+      <c r="I134" s="195"/>
       <c r="J134" s="115"/>
       <c r="K134" s="115"/>
     </row>
@@ -15523,7 +14995,7 @@
         <f>SUM($E$137:$E$143)/SUM($C$137:$C$143)</f>
         <v>1</v>
       </c>
-      <c r="I137" s="194">
+      <c r="I137" s="193">
         <f>DGA!$Z$3</f>
         <v>36938</v>
       </c>
@@ -15550,7 +15022,7 @@
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="28"/>
-      <c r="I138" s="195"/>
+      <c r="I138" s="194"/>
       <c r="J138" s="114"/>
       <c r="K138" s="114"/>
     </row>
@@ -15573,7 +15045,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="20"/>
-      <c r="I139" s="195"/>
+      <c r="I139" s="194"/>
       <c r="J139" s="114"/>
       <c r="K139" s="114"/>
     </row>
@@ -15596,7 +15068,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="20"/>
-      <c r="I140" s="195"/>
+      <c r="I140" s="194"/>
       <c r="J140" s="114"/>
       <c r="K140" s="114"/>
     </row>
@@ -15619,7 +15091,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="20"/>
-      <c r="I141" s="195"/>
+      <c r="I141" s="194"/>
       <c r="J141" s="114"/>
       <c r="K141" s="114"/>
     </row>
@@ -15642,7 +15114,7 @@
         <v>3</v>
       </c>
       <c r="F142" s="20"/>
-      <c r="I142" s="195"/>
+      <c r="I142" s="194"/>
       <c r="J142" s="114"/>
       <c r="K142" s="114"/>
     </row>
@@ -15665,7 +15137,7 @@
         <v>5</v>
       </c>
       <c r="F143" s="20"/>
-      <c r="I143" s="195"/>
+      <c r="I143" s="194"/>
       <c r="J143" s="114"/>
       <c r="K143" s="114"/>
     </row>
@@ -15690,28 +15162,28 @@
       <c r="D146" s="36"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="193"/>
-      <c r="B148" s="193"/>
-      <c r="C148" s="193"/>
-      <c r="D148" s="193"/>
-      <c r="E148" s="193"/>
-      <c r="F148" s="193"/>
-      <c r="G148" s="193"/>
-      <c r="H148" s="193"/>
-      <c r="I148" s="193"/>
+      <c r="A148" s="195"/>
+      <c r="B148" s="195"/>
+      <c r="C148" s="195"/>
+      <c r="D148" s="195"/>
+      <c r="E148" s="195"/>
+      <c r="F148" s="195"/>
+      <c r="G148" s="195"/>
+      <c r="H148" s="195"/>
+      <c r="I148" s="195"/>
       <c r="J148" s="115"/>
       <c r="K148" s="115"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="193"/>
-      <c r="B149" s="193"/>
-      <c r="C149" s="193"/>
-      <c r="D149" s="193"/>
-      <c r="E149" s="193"/>
-      <c r="F149" s="193"/>
-      <c r="G149" s="193"/>
-      <c r="H149" s="193"/>
-      <c r="I149" s="193"/>
+      <c r="A149" s="195"/>
+      <c r="B149" s="195"/>
+      <c r="C149" s="195"/>
+      <c r="D149" s="195"/>
+      <c r="E149" s="195"/>
+      <c r="F149" s="195"/>
+      <c r="G149" s="195"/>
+      <c r="H149" s="195"/>
+      <c r="I149" s="195"/>
       <c r="J149" s="115"/>
       <c r="K149" s="115"/>
     </row>
@@ -15758,7 +15230,7 @@
         <f>SUM(E152:E158)/SUM(C152:C158)</f>
         <v>1</v>
       </c>
-      <c r="I152" s="194">
+      <c r="I152" s="193">
         <f>DGA!$Y$3</f>
         <v>37110</v>
       </c>
@@ -15785,7 +15257,7 @@
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="28"/>
-      <c r="I153" s="195"/>
+      <c r="I153" s="194"/>
       <c r="J153" s="114"/>
       <c r="K153" s="114"/>
     </row>
@@ -15808,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="20"/>
-      <c r="I154" s="195"/>
+      <c r="I154" s="194"/>
       <c r="J154" s="114"/>
       <c r="K154" s="114"/>
     </row>
@@ -15831,7 +15303,7 @@
         <v>3</v>
       </c>
       <c r="F155" s="20"/>
-      <c r="I155" s="195"/>
+      <c r="I155" s="194"/>
       <c r="J155" s="114"/>
       <c r="K155" s="114"/>
     </row>
@@ -15854,7 +15326,7 @@
         <v>3</v>
       </c>
       <c r="F156" s="20"/>
-      <c r="I156" s="195"/>
+      <c r="I156" s="194"/>
       <c r="J156" s="114"/>
       <c r="K156" s="114"/>
     </row>
@@ -15877,7 +15349,7 @@
         <v>3</v>
       </c>
       <c r="F157" s="20"/>
-      <c r="I157" s="195"/>
+      <c r="I157" s="194"/>
       <c r="J157" s="114"/>
       <c r="K157" s="114"/>
     </row>
@@ -15900,7 +15372,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="20"/>
-      <c r="I158" s="195"/>
+      <c r="I158" s="194"/>
       <c r="J158" s="114"/>
       <c r="K158" s="114"/>
     </row>
@@ -15925,28 +15397,28 @@
       <c r="D161" s="36"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="193"/>
-      <c r="B163" s="193"/>
-      <c r="C163" s="193"/>
-      <c r="D163" s="193"/>
-      <c r="E163" s="193"/>
-      <c r="F163" s="193"/>
-      <c r="G163" s="193"/>
-      <c r="H163" s="193"/>
-      <c r="I163" s="193"/>
+      <c r="A163" s="195"/>
+      <c r="B163" s="195"/>
+      <c r="C163" s="195"/>
+      <c r="D163" s="195"/>
+      <c r="E163" s="195"/>
+      <c r="F163" s="195"/>
+      <c r="G163" s="195"/>
+      <c r="H163" s="195"/>
+      <c r="I163" s="195"/>
       <c r="J163" s="115"/>
       <c r="K163" s="115"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="193"/>
-      <c r="B164" s="193"/>
-      <c r="C164" s="193"/>
-      <c r="D164" s="193"/>
-      <c r="E164" s="193"/>
-      <c r="F164" s="193"/>
-      <c r="G164" s="193"/>
-      <c r="H164" s="193"/>
-      <c r="I164" s="193"/>
+      <c r="A164" s="195"/>
+      <c r="B164" s="195"/>
+      <c r="C164" s="195"/>
+      <c r="D164" s="195"/>
+      <c r="E164" s="195"/>
+      <c r="F164" s="195"/>
+      <c r="G164" s="195"/>
+      <c r="H164" s="195"/>
+      <c r="I164" s="195"/>
       <c r="J164" s="115"/>
       <c r="K164" s="115"/>
     </row>
@@ -15993,7 +15465,7 @@
         <f>SUM(E167:E173)/SUM(C167:C173)</f>
         <v>1</v>
       </c>
-      <c r="I167" s="194">
+      <c r="I167" s="193">
         <f>DGA!$X$3</f>
         <v>37274</v>
       </c>
@@ -16020,7 +15492,7 @@
       </c>
       <c r="F168" s="20"/>
       <c r="G168" s="28"/>
-      <c r="I168" s="195"/>
+      <c r="I168" s="194"/>
       <c r="J168" s="114"/>
       <c r="K168" s="114"/>
     </row>
@@ -16043,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="20"/>
-      <c r="I169" s="195"/>
+      <c r="I169" s="194"/>
       <c r="J169" s="114"/>
       <c r="K169" s="114"/>
     </row>
@@ -16066,7 +15538,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="20"/>
-      <c r="I170" s="195"/>
+      <c r="I170" s="194"/>
       <c r="J170" s="114"/>
       <c r="K170" s="114"/>
     </row>
@@ -16089,7 +15561,7 @@
         <v>3</v>
       </c>
       <c r="F171" s="20"/>
-      <c r="I171" s="195"/>
+      <c r="I171" s="194"/>
       <c r="J171" s="114"/>
       <c r="K171" s="114"/>
     </row>
@@ -16112,7 +15584,7 @@
         <v>3</v>
       </c>
       <c r="F172" s="20"/>
-      <c r="I172" s="195"/>
+      <c r="I172" s="194"/>
       <c r="J172" s="114"/>
       <c r="K172" s="114"/>
     </row>
@@ -16135,7 +15607,7 @@
         <v>5</v>
       </c>
       <c r="F173" s="20"/>
-      <c r="I173" s="195"/>
+      <c r="I173" s="194"/>
       <c r="J173" s="114"/>
       <c r="K173" s="114"/>
     </row>
@@ -16160,28 +15632,28 @@
       <c r="D176" s="36"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="193"/>
-      <c r="B178" s="193"/>
-      <c r="C178" s="193"/>
-      <c r="D178" s="193"/>
-      <c r="E178" s="193"/>
-      <c r="F178" s="193"/>
-      <c r="G178" s="193"/>
-      <c r="H178" s="193"/>
-      <c r="I178" s="193"/>
+      <c r="A178" s="195"/>
+      <c r="B178" s="195"/>
+      <c r="C178" s="195"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="195"/>
+      <c r="F178" s="195"/>
+      <c r="G178" s="195"/>
+      <c r="H178" s="195"/>
+      <c r="I178" s="195"/>
       <c r="J178" s="115"/>
       <c r="K178" s="115"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="193"/>
-      <c r="B179" s="193"/>
-      <c r="C179" s="193"/>
-      <c r="D179" s="193"/>
-      <c r="E179" s="193"/>
-      <c r="F179" s="193"/>
-      <c r="G179" s="193"/>
-      <c r="H179" s="193"/>
-      <c r="I179" s="193"/>
+      <c r="A179" s="195"/>
+      <c r="B179" s="195"/>
+      <c r="C179" s="195"/>
+      <c r="D179" s="195"/>
+      <c r="E179" s="195"/>
+      <c r="F179" s="195"/>
+      <c r="G179" s="195"/>
+      <c r="H179" s="195"/>
+      <c r="I179" s="195"/>
       <c r="J179" s="115"/>
       <c r="K179" s="115"/>
     </row>
@@ -16228,7 +15700,7 @@
         <f>SUM(E182:E188)/SUM(C182:C188)</f>
         <v>1</v>
       </c>
-      <c r="I182" s="194">
+      <c r="I182" s="193">
         <f>DGA!$W$3</f>
         <v>37480</v>
       </c>
@@ -16255,7 +15727,7 @@
       </c>
       <c r="F183" s="20"/>
       <c r="G183" s="28"/>
-      <c r="I183" s="195"/>
+      <c r="I183" s="194"/>
       <c r="J183" s="114"/>
       <c r="K183" s="114"/>
     </row>
@@ -16278,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="20"/>
-      <c r="I184" s="195"/>
+      <c r="I184" s="194"/>
       <c r="J184" s="114"/>
       <c r="K184" s="114"/>
     </row>
@@ -16301,7 +15773,7 @@
         <v>3</v>
       </c>
       <c r="F185" s="20"/>
-      <c r="I185" s="195"/>
+      <c r="I185" s="194"/>
       <c r="J185" s="114"/>
       <c r="K185" s="114"/>
     </row>
@@ -16324,7 +15796,7 @@
         <v>3</v>
       </c>
       <c r="F186" s="20"/>
-      <c r="I186" s="195"/>
+      <c r="I186" s="194"/>
       <c r="J186" s="114"/>
       <c r="K186" s="114"/>
     </row>
@@ -16347,7 +15819,7 @@
         <v>3</v>
       </c>
       <c r="F187" s="20"/>
-      <c r="I187" s="195"/>
+      <c r="I187" s="194"/>
       <c r="J187" s="114"/>
       <c r="K187" s="114"/>
     </row>
@@ -16370,7 +15842,7 @@
         <v>5</v>
       </c>
       <c r="F188" s="20"/>
-      <c r="I188" s="195"/>
+      <c r="I188" s="194"/>
       <c r="J188" s="114"/>
       <c r="K188" s="114"/>
     </row>
@@ -16395,15 +15867,15 @@
       <c r="D191" s="36"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="193"/>
-      <c r="B193" s="193"/>
-      <c r="C193" s="193"/>
-      <c r="D193" s="193"/>
-      <c r="E193" s="193"/>
-      <c r="F193" s="193"/>
-      <c r="G193" s="193"/>
-      <c r="H193" s="193"/>
-      <c r="I193" s="193"/>
+      <c r="A193" s="195"/>
+      <c r="B193" s="195"/>
+      <c r="C193" s="195"/>
+      <c r="D193" s="195"/>
+      <c r="E193" s="195"/>
+      <c r="F193" s="195"/>
+      <c r="G193" s="195"/>
+      <c r="H193" s="195"/>
+      <c r="I193" s="195"/>
       <c r="J193" s="115"/>
       <c r="K193" s="115"/>
       <c r="L193" s="115"/>
@@ -16417,15 +15889,15 @@
       <c r="T193" s="115"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="193"/>
-      <c r="B194" s="193"/>
-      <c r="C194" s="193"/>
-      <c r="D194" s="193"/>
-      <c r="E194" s="193"/>
-      <c r="F194" s="193"/>
-      <c r="G194" s="193"/>
-      <c r="H194" s="193"/>
-      <c r="I194" s="193"/>
+      <c r="A194" s="195"/>
+      <c r="B194" s="195"/>
+      <c r="C194" s="195"/>
+      <c r="D194" s="195"/>
+      <c r="E194" s="195"/>
+      <c r="F194" s="195"/>
+      <c r="G194" s="195"/>
+      <c r="H194" s="195"/>
+      <c r="I194" s="195"/>
       <c r="J194" s="115"/>
       <c r="K194" s="115"/>
       <c r="L194" s="115"/>
@@ -16481,7 +15953,7 @@
         <f>SUM(E197:E203)/SUM(C197:C203)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I197" s="194">
+      <c r="I197" s="193">
         <f>DGA!$V$3</f>
         <v>37636</v>
       </c>
@@ -16517,7 +15989,7 @@
       </c>
       <c r="F198" s="20"/>
       <c r="G198" s="28"/>
-      <c r="I198" s="195"/>
+      <c r="I198" s="194"/>
       <c r="J198" s="114"/>
       <c r="K198" s="114"/>
       <c r="L198" s="114"/>
@@ -16549,7 +16021,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="20"/>
-      <c r="I199" s="195"/>
+      <c r="I199" s="194"/>
       <c r="J199" s="114"/>
       <c r="K199" s="114"/>
       <c r="L199" s="114"/>
@@ -16581,7 +16053,7 @@
         <v>3</v>
       </c>
       <c r="F200" s="20"/>
-      <c r="I200" s="195"/>
+      <c r="I200" s="194"/>
       <c r="J200" s="114"/>
       <c r="K200" s="114"/>
       <c r="L200" s="114"/>
@@ -16613,7 +16085,7 @@
         <v>3</v>
       </c>
       <c r="F201" s="20"/>
-      <c r="I201" s="195"/>
+      <c r="I201" s="194"/>
       <c r="K201" s="114"/>
       <c r="L201" s="114"/>
       <c r="M201" s="114"/>
@@ -16644,7 +16116,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="20"/>
-      <c r="I202" s="195"/>
+      <c r="I202" s="194"/>
       <c r="K202" s="114"/>
       <c r="L202" s="114"/>
       <c r="M202" s="114"/>
@@ -16675,7 +16147,7 @@
         <v>5</v>
       </c>
       <c r="F203" s="20"/>
-      <c r="I203" s="195"/>
+      <c r="I203" s="194"/>
       <c r="K203" s="114"/>
       <c r="L203" s="114"/>
       <c r="M203" s="114"/>
@@ -16708,15 +16180,15 @@
       <c r="D206" s="36"/>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A208" s="193"/>
-      <c r="B208" s="193"/>
-      <c r="C208" s="193"/>
-      <c r="D208" s="193"/>
-      <c r="E208" s="193"/>
-      <c r="F208" s="193"/>
-      <c r="G208" s="193"/>
-      <c r="H208" s="193"/>
-      <c r="I208" s="193"/>
+      <c r="A208" s="195"/>
+      <c r="B208" s="195"/>
+      <c r="C208" s="195"/>
+      <c r="D208" s="195"/>
+      <c r="E208" s="195"/>
+      <c r="F208" s="195"/>
+      <c r="G208" s="195"/>
+      <c r="H208" s="195"/>
+      <c r="I208" s="195"/>
       <c r="K208" s="115"/>
       <c r="L208" s="115"/>
       <c r="M208" s="115"/>
@@ -16729,15 +16201,15 @@
       <c r="T208" s="115"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A209" s="193"/>
-      <c r="B209" s="193"/>
-      <c r="C209" s="193"/>
-      <c r="D209" s="193"/>
-      <c r="E209" s="193"/>
-      <c r="F209" s="193"/>
-      <c r="G209" s="193"/>
-      <c r="H209" s="193"/>
-      <c r="I209" s="193"/>
+      <c r="A209" s="195"/>
+      <c r="B209" s="195"/>
+      <c r="C209" s="195"/>
+      <c r="D209" s="195"/>
+      <c r="E209" s="195"/>
+      <c r="F209" s="195"/>
+      <c r="G209" s="195"/>
+      <c r="H209" s="195"/>
+      <c r="I209" s="195"/>
       <c r="J209" s="115"/>
       <c r="K209" s="115"/>
       <c r="L209" s="115"/>
@@ -16787,7 +16259,7 @@
         <f>SUM(E212:E218)/SUM(C212:C218)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I212" s="194">
+      <c r="I212" s="193">
         <f>DGA!$U$3</f>
         <v>37819</v>
       </c>
@@ -16817,7 +16289,7 @@
       </c>
       <c r="F213" s="20"/>
       <c r="G213" s="28"/>
-      <c r="I213" s="195"/>
+      <c r="I213" s="194"/>
       <c r="J213" s="114"/>
       <c r="K213" s="114"/>
       <c r="L213" s="114"/>
@@ -16843,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="20"/>
-      <c r="I214" s="195"/>
+      <c r="I214" s="194"/>
       <c r="J214" s="114"/>
       <c r="K214" s="114"/>
       <c r="L214" s="114"/>
@@ -16869,7 +16341,7 @@
         <v>3</v>
       </c>
       <c r="F215" s="20"/>
-      <c r="I215" s="195"/>
+      <c r="I215" s="194"/>
       <c r="J215" s="114"/>
       <c r="K215" s="114"/>
       <c r="L215" s="114"/>
@@ -16895,7 +16367,7 @@
         <v>3</v>
       </c>
       <c r="F216" s="20"/>
-      <c r="I216" s="195"/>
+      <c r="I216" s="194"/>
       <c r="J216" s="114"/>
       <c r="K216" s="114"/>
       <c r="L216" s="114"/>
@@ -16921,7 +16393,7 @@
         <v>3</v>
       </c>
       <c r="F217" s="20"/>
-      <c r="I217" s="195"/>
+      <c r="I217" s="194"/>
       <c r="J217" s="114"/>
       <c r="K217" s="114"/>
       <c r="L217" s="114"/>
@@ -16947,7 +16419,7 @@
         <v>5</v>
       </c>
       <c r="F218" s="20"/>
-      <c r="I218" s="195"/>
+      <c r="I218" s="194"/>
       <c r="J218" s="114"/>
       <c r="K218" s="114"/>
       <c r="L218" s="114"/>
@@ -16981,27 +16453,27 @@
       <c r="D221" s="36"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A223" s="193"/>
-      <c r="B223" s="193"/>
-      <c r="C223" s="193"/>
-      <c r="D223" s="193"/>
-      <c r="E223" s="193"/>
-      <c r="F223" s="193"/>
-      <c r="G223" s="193"/>
-      <c r="H223" s="193"/>
-      <c r="I223" s="193"/>
+      <c r="A223" s="195"/>
+      <c r="B223" s="195"/>
+      <c r="C223" s="195"/>
+      <c r="D223" s="195"/>
+      <c r="E223" s="195"/>
+      <c r="F223" s="195"/>
+      <c r="G223" s="195"/>
+      <c r="H223" s="195"/>
+      <c r="I223" s="195"/>
       <c r="J223" s="115"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A224" s="193"/>
-      <c r="B224" s="193"/>
-      <c r="C224" s="193"/>
-      <c r="D224" s="193"/>
-      <c r="E224" s="193"/>
-      <c r="F224" s="193"/>
-      <c r="G224" s="193"/>
-      <c r="H224" s="193"/>
-      <c r="I224" s="193"/>
+      <c r="A224" s="195"/>
+      <c r="B224" s="195"/>
+      <c r="C224" s="195"/>
+      <c r="D224" s="195"/>
+      <c r="E224" s="195"/>
+      <c r="F224" s="195"/>
+      <c r="G224" s="195"/>
+      <c r="H224" s="195"/>
+      <c r="I224" s="195"/>
       <c r="J224" s="115"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17047,7 +16519,7 @@
         <f>SUM(E227:E233)/SUM(C227:C233)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I227" s="194">
+      <c r="I227" s="193">
         <f>DGA!$T$3</f>
         <v>38022</v>
       </c>
@@ -17073,7 +16545,7 @@
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="28"/>
-      <c r="I228" s="195"/>
+      <c r="I228" s="194"/>
       <c r="J228" s="114"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -17095,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="20"/>
-      <c r="I229" s="195"/>
+      <c r="I229" s="194"/>
       <c r="J229" s="114"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -17117,7 +16589,7 @@
         <v>3</v>
       </c>
       <c r="F230" s="20"/>
-      <c r="I230" s="195"/>
+      <c r="I230" s="194"/>
       <c r="J230" s="114"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -17139,7 +16611,7 @@
         <v>3</v>
       </c>
       <c r="F231" s="20"/>
-      <c r="I231" s="195"/>
+      <c r="I231" s="194"/>
       <c r="J231" s="114"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -17161,7 +16633,7 @@
         <v>3</v>
       </c>
       <c r="F232" s="20"/>
-      <c r="I232" s="195"/>
+      <c r="I232" s="194"/>
       <c r="J232" s="114"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -17183,7 +16655,7 @@
         <v>5</v>
       </c>
       <c r="F233" s="20"/>
-      <c r="I233" s="195"/>
+      <c r="I233" s="194"/>
       <c r="J233" s="114"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17207,27 +16679,27 @@
       <c r="D236" s="36"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="193"/>
-      <c r="B238" s="193"/>
-      <c r="C238" s="193"/>
-      <c r="D238" s="193"/>
-      <c r="E238" s="193"/>
-      <c r="F238" s="193"/>
-      <c r="G238" s="193"/>
-      <c r="H238" s="193"/>
-      <c r="I238" s="193"/>
+      <c r="A238" s="195"/>
+      <c r="B238" s="195"/>
+      <c r="C238" s="195"/>
+      <c r="D238" s="195"/>
+      <c r="E238" s="195"/>
+      <c r="F238" s="195"/>
+      <c r="G238" s="195"/>
+      <c r="H238" s="195"/>
+      <c r="I238" s="195"/>
       <c r="J238" s="115"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="193"/>
-      <c r="B239" s="193"/>
-      <c r="C239" s="193"/>
-      <c r="D239" s="193"/>
-      <c r="E239" s="193"/>
-      <c r="F239" s="193"/>
-      <c r="G239" s="193"/>
-      <c r="H239" s="193"/>
-      <c r="I239" s="193"/>
+      <c r="A239" s="195"/>
+      <c r="B239" s="195"/>
+      <c r="C239" s="195"/>
+      <c r="D239" s="195"/>
+      <c r="E239" s="195"/>
+      <c r="F239" s="195"/>
+      <c r="G239" s="195"/>
+      <c r="H239" s="195"/>
+      <c r="I239" s="195"/>
       <c r="J239" s="115"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17273,7 +16745,7 @@
         <f>SUM(E242:E248)/SUM(C242:C248)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I242" s="194">
+      <c r="I242" s="193">
         <f>DGA!$S$3</f>
         <v>38225</v>
       </c>
@@ -17299,7 +16771,7 @@
       </c>
       <c r="F243" s="20"/>
       <c r="G243" s="28"/>
-      <c r="I243" s="195"/>
+      <c r="I243" s="194"/>
       <c r="J243" s="114"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -17321,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="20"/>
-      <c r="I244" s="195"/>
+      <c r="I244" s="194"/>
       <c r="J244" s="114"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -17343,7 +16815,7 @@
         <v>3</v>
       </c>
       <c r="F245" s="20"/>
-      <c r="I245" s="195"/>
+      <c r="I245" s="194"/>
       <c r="J245" s="114"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -17365,7 +16837,7 @@
         <v>3</v>
       </c>
       <c r="F246" s="20"/>
-      <c r="I246" s="195"/>
+      <c r="I246" s="194"/>
       <c r="J246" s="114"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -17387,7 +16859,7 @@
         <v>3</v>
       </c>
       <c r="F247" s="20"/>
-      <c r="I247" s="195"/>
+      <c r="I247" s="194"/>
       <c r="J247" s="114"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -17409,7 +16881,7 @@
         <v>5</v>
       </c>
       <c r="F248" s="20"/>
-      <c r="I248" s="195"/>
+      <c r="I248" s="194"/>
       <c r="J248" s="114"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17433,27 +16905,27 @@
       <c r="D251" s="36"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="193"/>
-      <c r="B253" s="193"/>
-      <c r="C253" s="193"/>
-      <c r="D253" s="193"/>
-      <c r="E253" s="193"/>
-      <c r="F253" s="193"/>
-      <c r="G253" s="193"/>
-      <c r="H253" s="193"/>
-      <c r="I253" s="193"/>
+      <c r="A253" s="195"/>
+      <c r="B253" s="195"/>
+      <c r="C253" s="195"/>
+      <c r="D253" s="195"/>
+      <c r="E253" s="195"/>
+      <c r="F253" s="195"/>
+      <c r="G253" s="195"/>
+      <c r="H253" s="195"/>
+      <c r="I253" s="195"/>
       <c r="J253" s="115"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="193"/>
-      <c r="B254" s="193"/>
-      <c r="C254" s="193"/>
-      <c r="D254" s="193"/>
-      <c r="E254" s="193"/>
-      <c r="F254" s="193"/>
-      <c r="G254" s="193"/>
-      <c r="H254" s="193"/>
-      <c r="I254" s="193"/>
+      <c r="A254" s="195"/>
+      <c r="B254" s="195"/>
+      <c r="C254" s="195"/>
+      <c r="D254" s="195"/>
+      <c r="E254" s="195"/>
+      <c r="F254" s="195"/>
+      <c r="G254" s="195"/>
+      <c r="H254" s="195"/>
+      <c r="I254" s="195"/>
       <c r="J254" s="115"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17499,7 +16971,7 @@
         <f>SUM(E257:E263)/SUM(C257:C263)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I257" s="194">
+      <c r="I257" s="193">
         <f>DGA!$R$3</f>
         <v>38393</v>
       </c>
@@ -17525,7 +16997,7 @@
       </c>
       <c r="F258" s="20"/>
       <c r="G258" s="28"/>
-      <c r="I258" s="195"/>
+      <c r="I258" s="194"/>
       <c r="J258" s="114"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -17547,7 +17019,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="20"/>
-      <c r="I259" s="195"/>
+      <c r="I259" s="194"/>
       <c r="J259" s="114"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -17569,7 +17041,7 @@
         <v>3</v>
       </c>
       <c r="F260" s="20"/>
-      <c r="I260" s="195"/>
+      <c r="I260" s="194"/>
       <c r="J260" s="114"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -17591,7 +17063,7 @@
         <v>3</v>
       </c>
       <c r="F261" s="20"/>
-      <c r="I261" s="195"/>
+      <c r="I261" s="194"/>
       <c r="J261" s="114"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -17613,7 +17085,7 @@
         <v>3</v>
       </c>
       <c r="F262" s="20"/>
-      <c r="I262" s="195"/>
+      <c r="I262" s="194"/>
       <c r="J262" s="114"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -17635,7 +17107,7 @@
         <v>5</v>
       </c>
       <c r="F263" s="20"/>
-      <c r="I263" s="195"/>
+      <c r="I263" s="194"/>
       <c r="J263" s="114"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17659,27 +17131,27 @@
       <c r="D266" s="36"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="193"/>
-      <c r="B268" s="193"/>
-      <c r="C268" s="193"/>
-      <c r="D268" s="193"/>
-      <c r="E268" s="193"/>
-      <c r="F268" s="193"/>
-      <c r="G268" s="193"/>
-      <c r="H268" s="193"/>
-      <c r="I268" s="193"/>
+      <c r="A268" s="195"/>
+      <c r="B268" s="195"/>
+      <c r="C268" s="195"/>
+      <c r="D268" s="195"/>
+      <c r="E268" s="195"/>
+      <c r="F268" s="195"/>
+      <c r="G268" s="195"/>
+      <c r="H268" s="195"/>
+      <c r="I268" s="195"/>
       <c r="J268" s="115"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="193"/>
-      <c r="B269" s="193"/>
-      <c r="C269" s="193"/>
-      <c r="D269" s="193"/>
-      <c r="E269" s="193"/>
-      <c r="F269" s="193"/>
-      <c r="G269" s="193"/>
-      <c r="H269" s="193"/>
-      <c r="I269" s="193"/>
+      <c r="A269" s="195"/>
+      <c r="B269" s="195"/>
+      <c r="C269" s="195"/>
+      <c r="D269" s="195"/>
+      <c r="E269" s="195"/>
+      <c r="F269" s="195"/>
+      <c r="G269" s="195"/>
+      <c r="H269" s="195"/>
+      <c r="I269" s="195"/>
       <c r="J269" s="115"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17725,7 +17197,7 @@
         <f>SUM(E272:E278)/SUM(C272:C278)</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="I272" s="194">
+      <c r="I272" s="193">
         <f>DGA!$Q$3</f>
         <v>38546</v>
       </c>
@@ -17751,7 +17223,7 @@
       </c>
       <c r="F273" s="20"/>
       <c r="G273" s="28"/>
-      <c r="I273" s="195"/>
+      <c r="I273" s="194"/>
       <c r="J273" s="114"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -17773,7 +17245,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="20"/>
-      <c r="I274" s="195"/>
+      <c r="I274" s="194"/>
       <c r="J274" s="114"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -17795,7 +17267,7 @@
         <v>3</v>
       </c>
       <c r="F275" s="20"/>
-      <c r="I275" s="195"/>
+      <c r="I275" s="194"/>
       <c r="J275" s="114"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -17817,7 +17289,7 @@
         <v>3</v>
       </c>
       <c r="F276" s="20"/>
-      <c r="I276" s="195"/>
+      <c r="I276" s="194"/>
       <c r="J276" s="114"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -17839,7 +17311,7 @@
         <v>3</v>
       </c>
       <c r="F277" s="20"/>
-      <c r="I277" s="195"/>
+      <c r="I277" s="194"/>
       <c r="J277" s="114"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -17861,7 +17333,7 @@
         <v>5</v>
       </c>
       <c r="F278" s="20"/>
-      <c r="I278" s="195"/>
+      <c r="I278" s="194"/>
       <c r="J278" s="114"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17885,27 +17357,27 @@
       <c r="D281" s="36"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="193"/>
-      <c r="B283" s="193"/>
-      <c r="C283" s="193"/>
-      <c r="D283" s="193"/>
-      <c r="E283" s="193"/>
-      <c r="F283" s="193"/>
-      <c r="G283" s="193"/>
-      <c r="H283" s="193"/>
-      <c r="I283" s="193"/>
+      <c r="A283" s="195"/>
+      <c r="B283" s="195"/>
+      <c r="C283" s="195"/>
+      <c r="D283" s="195"/>
+      <c r="E283" s="195"/>
+      <c r="F283" s="195"/>
+      <c r="G283" s="195"/>
+      <c r="H283" s="195"/>
+      <c r="I283" s="195"/>
       <c r="J283" s="115"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="193"/>
-      <c r="B284" s="193"/>
-      <c r="C284" s="193"/>
-      <c r="D284" s="193"/>
-      <c r="E284" s="193"/>
-      <c r="F284" s="193"/>
-      <c r="G284" s="193"/>
-      <c r="H284" s="193"/>
-      <c r="I284" s="193"/>
+      <c r="A284" s="195"/>
+      <c r="B284" s="195"/>
+      <c r="C284" s="195"/>
+      <c r="D284" s="195"/>
+      <c r="E284" s="195"/>
+      <c r="F284" s="195"/>
+      <c r="G284" s="195"/>
+      <c r="H284" s="195"/>
+      <c r="I284" s="195"/>
       <c r="J284" s="115"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17951,7 +17423,7 @@
         <f>SUM(E287:E293)/SUM(C287:C293)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I287" s="194">
+      <c r="I287" s="193">
         <f>DGA!$P$3</f>
         <v>38748</v>
       </c>
@@ -17977,7 +17449,7 @@
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="28"/>
-      <c r="I288" s="195"/>
+      <c r="I288" s="194"/>
       <c r="J288" s="114"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -17999,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="20"/>
-      <c r="I289" s="195"/>
+      <c r="I289" s="194"/>
       <c r="J289" s="114"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -18021,7 +17493,7 @@
         <v>3</v>
       </c>
       <c r="F290" s="20"/>
-      <c r="I290" s="195"/>
+      <c r="I290" s="194"/>
       <c r="J290" s="114"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -18043,7 +17515,7 @@
         <v>3</v>
       </c>
       <c r="F291" s="20"/>
-      <c r="I291" s="195"/>
+      <c r="I291" s="194"/>
       <c r="J291" s="114"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -18065,7 +17537,7 @@
         <v>3</v>
       </c>
       <c r="F292" s="20"/>
-      <c r="I292" s="195"/>
+      <c r="I292" s="194"/>
       <c r="J292" s="114"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -18087,7 +17559,7 @@
         <v>10</v>
       </c>
       <c r="F293" s="20"/>
-      <c r="I293" s="195"/>
+      <c r="I293" s="194"/>
       <c r="J293" s="114"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18111,27 +17583,27 @@
       <c r="D296" s="36"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="193"/>
-      <c r="B298" s="193"/>
-      <c r="C298" s="193"/>
-      <c r="D298" s="193"/>
-      <c r="E298" s="193"/>
-      <c r="F298" s="193"/>
-      <c r="G298" s="193"/>
-      <c r="H298" s="193"/>
-      <c r="I298" s="193"/>
+      <c r="A298" s="195"/>
+      <c r="B298" s="195"/>
+      <c r="C298" s="195"/>
+      <c r="D298" s="195"/>
+      <c r="E298" s="195"/>
+      <c r="F298" s="195"/>
+      <c r="G298" s="195"/>
+      <c r="H298" s="195"/>
+      <c r="I298" s="195"/>
       <c r="J298" s="115"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" s="193"/>
-      <c r="B299" s="193"/>
-      <c r="C299" s="193"/>
-      <c r="D299" s="193"/>
-      <c r="E299" s="193"/>
-      <c r="F299" s="193"/>
-      <c r="G299" s="193"/>
-      <c r="H299" s="193"/>
-      <c r="I299" s="193"/>
+      <c r="A299" s="195"/>
+      <c r="B299" s="195"/>
+      <c r="C299" s="195"/>
+      <c r="D299" s="195"/>
+      <c r="E299" s="195"/>
+      <c r="F299" s="195"/>
+      <c r="G299" s="195"/>
+      <c r="H299" s="195"/>
+      <c r="I299" s="195"/>
       <c r="J299" s="115"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18177,7 +17649,7 @@
         <f>SUM(E302:E308)/SUM(C302:C308)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I302" s="194">
+      <c r="I302" s="193">
         <f>DGA!$O$3</f>
         <v>39051</v>
       </c>
@@ -18203,7 +17675,7 @@
       </c>
       <c r="F303" s="20"/>
       <c r="G303" s="28"/>
-      <c r="I303" s="195"/>
+      <c r="I303" s="194"/>
       <c r="J303" s="114"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -18225,7 +17697,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="20"/>
-      <c r="I304" s="195"/>
+      <c r="I304" s="194"/>
       <c r="J304" s="114"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -18247,7 +17719,7 @@
         <v>3</v>
       </c>
       <c r="F305" s="20"/>
-      <c r="I305" s="195"/>
+      <c r="I305" s="194"/>
       <c r="J305" s="114"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -18269,7 +17741,7 @@
         <v>3</v>
       </c>
       <c r="F306" s="20"/>
-      <c r="I306" s="195"/>
+      <c r="I306" s="194"/>
       <c r="J306" s="114"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -18291,7 +17763,7 @@
         <v>3</v>
       </c>
       <c r="F307" s="20"/>
-      <c r="I307" s="195"/>
+      <c r="I307" s="194"/>
       <c r="J307" s="114"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -18313,7 +17785,7 @@
         <v>10</v>
       </c>
       <c r="F308" s="20"/>
-      <c r="I308" s="195"/>
+      <c r="I308" s="194"/>
       <c r="J308" s="114"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18337,27 +17809,27 @@
       <c r="D311" s="36"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" s="193"/>
-      <c r="B313" s="193"/>
-      <c r="C313" s="193"/>
-      <c r="D313" s="193"/>
-      <c r="E313" s="193"/>
-      <c r="F313" s="193"/>
-      <c r="G313" s="193"/>
-      <c r="H313" s="193"/>
-      <c r="I313" s="193"/>
+      <c r="A313" s="195"/>
+      <c r="B313" s="195"/>
+      <c r="C313" s="195"/>
+      <c r="D313" s="195"/>
+      <c r="E313" s="195"/>
+      <c r="F313" s="195"/>
+      <c r="G313" s="195"/>
+      <c r="H313" s="195"/>
+      <c r="I313" s="195"/>
       <c r="J313" s="115"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="193"/>
-      <c r="B314" s="193"/>
-      <c r="C314" s="193"/>
-      <c r="D314" s="193"/>
-      <c r="E314" s="193"/>
-      <c r="F314" s="193"/>
-      <c r="G314" s="193"/>
-      <c r="H314" s="193"/>
-      <c r="I314" s="193"/>
+      <c r="A314" s="195"/>
+      <c r="B314" s="195"/>
+      <c r="C314" s="195"/>
+      <c r="D314" s="195"/>
+      <c r="E314" s="195"/>
+      <c r="F314" s="195"/>
+      <c r="G314" s="195"/>
+      <c r="H314" s="195"/>
+      <c r="I314" s="195"/>
       <c r="J314" s="115"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18403,7 +17875,7 @@
         <f>SUM(E317:E323)/SUM(C317:C323)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I317" s="194">
+      <c r="I317" s="193">
         <f>DGA!$N$3</f>
         <v>39191</v>
       </c>
@@ -18429,7 +17901,7 @@
       </c>
       <c r="F318" s="20"/>
       <c r="G318" s="28"/>
-      <c r="I318" s="195"/>
+      <c r="I318" s="194"/>
       <c r="J318" s="114"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -18451,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="20"/>
-      <c r="I319" s="195"/>
+      <c r="I319" s="194"/>
       <c r="J319" s="114"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -18473,7 +17945,7 @@
         <v>3</v>
       </c>
       <c r="F320" s="20"/>
-      <c r="I320" s="195"/>
+      <c r="I320" s="194"/>
       <c r="J320" s="114"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -18495,7 +17967,7 @@
         <v>3</v>
       </c>
       <c r="F321" s="20"/>
-      <c r="I321" s="195"/>
+      <c r="I321" s="194"/>
       <c r="J321" s="114"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -18517,7 +17989,7 @@
         <v>3</v>
       </c>
       <c r="F322" s="20"/>
-      <c r="I322" s="195"/>
+      <c r="I322" s="194"/>
       <c r="J322" s="114"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -18539,7 +18011,7 @@
         <v>10</v>
       </c>
       <c r="F323" s="20"/>
-      <c r="I323" s="195"/>
+      <c r="I323" s="194"/>
       <c r="J323" s="114"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18563,27 +18035,27 @@
       <c r="D326" s="36"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" s="193"/>
-      <c r="B328" s="193"/>
-      <c r="C328" s="193"/>
-      <c r="D328" s="193"/>
-      <c r="E328" s="193"/>
-      <c r="F328" s="193"/>
-      <c r="G328" s="193"/>
-      <c r="H328" s="193"/>
-      <c r="I328" s="193"/>
+      <c r="A328" s="195"/>
+      <c r="B328" s="195"/>
+      <c r="C328" s="195"/>
+      <c r="D328" s="195"/>
+      <c r="E328" s="195"/>
+      <c r="F328" s="195"/>
+      <c r="G328" s="195"/>
+      <c r="H328" s="195"/>
+      <c r="I328" s="195"/>
       <c r="J328" s="115"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="193"/>
-      <c r="B329" s="193"/>
-      <c r="C329" s="193"/>
-      <c r="D329" s="193"/>
-      <c r="E329" s="193"/>
-      <c r="F329" s="193"/>
-      <c r="G329" s="193"/>
-      <c r="H329" s="193"/>
-      <c r="I329" s="193"/>
+      <c r="A329" s="195"/>
+      <c r="B329" s="195"/>
+      <c r="C329" s="195"/>
+      <c r="D329" s="195"/>
+      <c r="E329" s="195"/>
+      <c r="F329" s="195"/>
+      <c r="G329" s="195"/>
+      <c r="H329" s="195"/>
+      <c r="I329" s="195"/>
       <c r="J329" s="115"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18629,7 +18101,7 @@
         <f>SUM(E332:E338)/SUM(C332:C338)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I332" s="194">
+      <c r="I332" s="193">
         <f>DGA!$M$3</f>
         <v>39394</v>
       </c>
@@ -18655,7 +18127,7 @@
       </c>
       <c r="F333" s="20"/>
       <c r="G333" s="28"/>
-      <c r="I333" s="195"/>
+      <c r="I333" s="194"/>
       <c r="J333" s="114"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -18677,7 +18149,7 @@
         <v>1</v>
       </c>
       <c r="F334" s="20"/>
-      <c r="I334" s="195"/>
+      <c r="I334" s="194"/>
       <c r="J334" s="114"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -18699,7 +18171,7 @@
         <v>3</v>
       </c>
       <c r="F335" s="20"/>
-      <c r="I335" s="195"/>
+      <c r="I335" s="194"/>
       <c r="J335" s="114"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -18721,7 +18193,7 @@
         <v>3</v>
       </c>
       <c r="F336" s="20"/>
-      <c r="I336" s="195"/>
+      <c r="I336" s="194"/>
       <c r="J336" s="114"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -18743,7 +18215,7 @@
         <v>3</v>
       </c>
       <c r="F337" s="20"/>
-      <c r="I337" s="195"/>
+      <c r="I337" s="194"/>
       <c r="J337" s="114"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -18765,7 +18237,7 @@
         <v>10</v>
       </c>
       <c r="F338" s="20"/>
-      <c r="I338" s="195"/>
+      <c r="I338" s="194"/>
       <c r="J338" s="114"/>
     </row>
     <row r="339" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18789,27 +18261,27 @@
       <c r="D341" s="36"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="193"/>
-      <c r="B343" s="193"/>
-      <c r="C343" s="193"/>
-      <c r="D343" s="193"/>
-      <c r="E343" s="193"/>
-      <c r="F343" s="193"/>
-      <c r="G343" s="193"/>
-      <c r="H343" s="193"/>
-      <c r="I343" s="193"/>
+      <c r="A343" s="195"/>
+      <c r="B343" s="195"/>
+      <c r="C343" s="195"/>
+      <c r="D343" s="195"/>
+      <c r="E343" s="195"/>
+      <c r="F343" s="195"/>
+      <c r="G343" s="195"/>
+      <c r="H343" s="195"/>
+      <c r="I343" s="195"/>
       <c r="J343" s="115"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" s="193"/>
-      <c r="B344" s="193"/>
-      <c r="C344" s="193"/>
-      <c r="D344" s="193"/>
-      <c r="E344" s="193"/>
-      <c r="F344" s="193"/>
-      <c r="G344" s="193"/>
-      <c r="H344" s="193"/>
-      <c r="I344" s="193"/>
+      <c r="A344" s="195"/>
+      <c r="B344" s="195"/>
+      <c r="C344" s="195"/>
+      <c r="D344" s="195"/>
+      <c r="E344" s="195"/>
+      <c r="F344" s="195"/>
+      <c r="G344" s="195"/>
+      <c r="H344" s="195"/>
+      <c r="I344" s="195"/>
       <c r="J344" s="115"/>
     </row>
     <row r="345" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18855,7 +18327,7 @@
         <f>SUM(E347:E353)/SUM(C347:C353)</f>
         <v>1.2777777777777777</v>
       </c>
-      <c r="I347" s="194">
+      <c r="I347" s="193">
         <f>DGA!$L$3</f>
         <v>39521</v>
       </c>
@@ -18881,7 +18353,7 @@
       </c>
       <c r="F348" s="20"/>
       <c r="G348" s="28"/>
-      <c r="I348" s="195"/>
+      <c r="I348" s="194"/>
       <c r="J348" s="114"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -18903,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="F349" s="20"/>
-      <c r="I349" s="195"/>
+      <c r="I349" s="194"/>
       <c r="J349" s="114"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -18925,7 +18397,7 @@
         <v>3</v>
       </c>
       <c r="F350" s="20"/>
-      <c r="I350" s="195"/>
+      <c r="I350" s="194"/>
       <c r="J350" s="114"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -18947,7 +18419,7 @@
         <v>3</v>
       </c>
       <c r="F351" s="20"/>
-      <c r="I351" s="195"/>
+      <c r="I351" s="194"/>
       <c r="J351" s="114"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -18969,7 +18441,7 @@
         <v>3</v>
       </c>
       <c r="F352" s="20"/>
-      <c r="I352" s="195"/>
+      <c r="I352" s="194"/>
       <c r="J352" s="114"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -18991,7 +18463,7 @@
         <v>10</v>
       </c>
       <c r="F353" s="20"/>
-      <c r="I353" s="195"/>
+      <c r="I353" s="194"/>
       <c r="J353" s="114"/>
     </row>
     <row r="354" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19015,27 +18487,27 @@
       <c r="D356" s="36"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358" s="193"/>
-      <c r="B358" s="193"/>
-      <c r="C358" s="193"/>
-      <c r="D358" s="193"/>
-      <c r="E358" s="193"/>
-      <c r="F358" s="193"/>
-      <c r="G358" s="193"/>
-      <c r="H358" s="193"/>
-      <c r="I358" s="193"/>
+      <c r="A358" s="195"/>
+      <c r="B358" s="195"/>
+      <c r="C358" s="195"/>
+      <c r="D358" s="195"/>
+      <c r="E358" s="195"/>
+      <c r="F358" s="195"/>
+      <c r="G358" s="195"/>
+      <c r="H358" s="195"/>
+      <c r="I358" s="195"/>
       <c r="J358" s="115"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A359" s="193"/>
-      <c r="B359" s="193"/>
-      <c r="C359" s="193"/>
-      <c r="D359" s="193"/>
-      <c r="E359" s="193"/>
-      <c r="F359" s="193"/>
-      <c r="G359" s="193"/>
-      <c r="H359" s="193"/>
-      <c r="I359" s="193"/>
+      <c r="A359" s="195"/>
+      <c r="B359" s="195"/>
+      <c r="C359" s="195"/>
+      <c r="D359" s="195"/>
+      <c r="E359" s="195"/>
+      <c r="F359" s="195"/>
+      <c r="G359" s="195"/>
+      <c r="H359" s="195"/>
+      <c r="I359" s="195"/>
       <c r="J359" s="115"/>
     </row>
     <row r="360" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19081,7 +18553,7 @@
         <f>SUM(E362:E368)/SUM(C362:C368)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I362" s="194">
+      <c r="I362" s="193">
         <f>DGA!$K$3</f>
         <v>39695</v>
       </c>
@@ -19107,7 +18579,7 @@
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="28"/>
-      <c r="I363" s="195"/>
+      <c r="I363" s="194"/>
       <c r="J363" s="114"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -19129,7 +18601,7 @@
         <v>1</v>
       </c>
       <c r="F364" s="20"/>
-      <c r="I364" s="195"/>
+      <c r="I364" s="194"/>
       <c r="J364" s="114"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -19151,7 +18623,7 @@
         <v>3</v>
       </c>
       <c r="F365" s="20"/>
-      <c r="I365" s="195"/>
+      <c r="I365" s="194"/>
       <c r="J365" s="114"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -19173,7 +18645,7 @@
         <v>3</v>
       </c>
       <c r="F366" s="20"/>
-      <c r="I366" s="195"/>
+      <c r="I366" s="194"/>
       <c r="J366" s="114"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -19195,7 +18667,7 @@
         <v>3</v>
       </c>
       <c r="F367" s="20"/>
-      <c r="I367" s="195"/>
+      <c r="I367" s="194"/>
       <c r="J367" s="114"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -19217,7 +18689,7 @@
         <v>10</v>
       </c>
       <c r="F368" s="20"/>
-      <c r="I368" s="195"/>
+      <c r="I368" s="194"/>
       <c r="J368" s="114"/>
     </row>
     <row r="369" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19241,27 +18713,27 @@
       <c r="D371" s="36"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" s="193"/>
-      <c r="B373" s="193"/>
-      <c r="C373" s="193"/>
-      <c r="D373" s="193"/>
-      <c r="E373" s="193"/>
-      <c r="F373" s="193"/>
-      <c r="G373" s="193"/>
-      <c r="H373" s="193"/>
-      <c r="I373" s="193"/>
+      <c r="A373" s="195"/>
+      <c r="B373" s="195"/>
+      <c r="C373" s="195"/>
+      <c r="D373" s="195"/>
+      <c r="E373" s="195"/>
+      <c r="F373" s="195"/>
+      <c r="G373" s="195"/>
+      <c r="H373" s="195"/>
+      <c r="I373" s="195"/>
       <c r="J373" s="115"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="193"/>
-      <c r="B374" s="193"/>
-      <c r="C374" s="193"/>
-      <c r="D374" s="193"/>
-      <c r="E374" s="193"/>
-      <c r="F374" s="193"/>
-      <c r="G374" s="193"/>
-      <c r="H374" s="193"/>
-      <c r="I374" s="193"/>
+      <c r="A374" s="195"/>
+      <c r="B374" s="195"/>
+      <c r="C374" s="195"/>
+      <c r="D374" s="195"/>
+      <c r="E374" s="195"/>
+      <c r="F374" s="195"/>
+      <c r="G374" s="195"/>
+      <c r="H374" s="195"/>
+      <c r="I374" s="195"/>
       <c r="J374" s="115"/>
     </row>
     <row r="375" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19307,7 +18779,7 @@
         <f>SUM(E377:E383)/SUM(C377:C383)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I377" s="194">
+      <c r="I377" s="193">
         <f>DGA!$J$3</f>
         <v>39869</v>
       </c>
@@ -19333,7 +18805,7 @@
       </c>
       <c r="F378" s="20"/>
       <c r="G378" s="28"/>
-      <c r="I378" s="195"/>
+      <c r="I378" s="194"/>
       <c r="J378" s="114"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -19355,7 +18827,7 @@
         <v>1</v>
       </c>
       <c r="F379" s="20"/>
-      <c r="I379" s="195"/>
+      <c r="I379" s="194"/>
       <c r="J379" s="114"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -19377,7 +18849,7 @@
         <v>3</v>
       </c>
       <c r="F380" s="20"/>
-      <c r="I380" s="195"/>
+      <c r="I380" s="194"/>
       <c r="J380" s="114"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -19399,7 +18871,7 @@
         <v>3</v>
       </c>
       <c r="F381" s="20"/>
-      <c r="I381" s="195"/>
+      <c r="I381" s="194"/>
       <c r="J381" s="114"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -19421,7 +18893,7 @@
         <v>3</v>
       </c>
       <c r="F382" s="20"/>
-      <c r="I382" s="195"/>
+      <c r="I382" s="194"/>
       <c r="J382" s="114"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -19443,7 +18915,7 @@
         <v>10</v>
       </c>
       <c r="F383" s="20"/>
-      <c r="I383" s="195"/>
+      <c r="I383" s="194"/>
       <c r="J383" s="114"/>
     </row>
     <row r="384" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19467,27 +18939,27 @@
       <c r="D386" s="36"/>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="193"/>
-      <c r="B388" s="193"/>
-      <c r="C388" s="193"/>
-      <c r="D388" s="193"/>
-      <c r="E388" s="193"/>
-      <c r="F388" s="193"/>
-      <c r="G388" s="193"/>
-      <c r="H388" s="193"/>
-      <c r="I388" s="193"/>
+      <c r="A388" s="195"/>
+      <c r="B388" s="195"/>
+      <c r="C388" s="195"/>
+      <c r="D388" s="195"/>
+      <c r="E388" s="195"/>
+      <c r="F388" s="195"/>
+      <c r="G388" s="195"/>
+      <c r="H388" s="195"/>
+      <c r="I388" s="195"/>
       <c r="J388" s="115"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A389" s="193"/>
-      <c r="B389" s="193"/>
-      <c r="C389" s="193"/>
-      <c r="D389" s="193"/>
-      <c r="E389" s="193"/>
-      <c r="F389" s="193"/>
-      <c r="G389" s="193"/>
-      <c r="H389" s="193"/>
-      <c r="I389" s="193"/>
+      <c r="A389" s="195"/>
+      <c r="B389" s="195"/>
+      <c r="C389" s="195"/>
+      <c r="D389" s="195"/>
+      <c r="E389" s="195"/>
+      <c r="F389" s="195"/>
+      <c r="G389" s="195"/>
+      <c r="H389" s="195"/>
+      <c r="I389" s="195"/>
       <c r="J389" s="115"/>
     </row>
     <row r="390" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19533,7 +19005,7 @@
         <f>SUM(E392:E398)/SUM(C392:C398)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I392" s="194">
+      <c r="I392" s="193">
         <f>DGA!$I$3</f>
         <v>40095</v>
       </c>
@@ -19559,7 +19031,7 @@
       </c>
       <c r="F393" s="20"/>
       <c r="G393" s="28"/>
-      <c r="I393" s="195"/>
+      <c r="I393" s="194"/>
       <c r="J393" s="114"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -19581,7 +19053,7 @@
         <v>1</v>
       </c>
       <c r="F394" s="20"/>
-      <c r="I394" s="195"/>
+      <c r="I394" s="194"/>
       <c r="J394" s="114"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -19603,7 +19075,7 @@
         <v>3</v>
       </c>
       <c r="F395" s="20"/>
-      <c r="I395" s="195"/>
+      <c r="I395" s="194"/>
       <c r="J395" s="114"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -19625,7 +19097,7 @@
         <v>3</v>
       </c>
       <c r="F396" s="20"/>
-      <c r="I396" s="195"/>
+      <c r="I396" s="194"/>
       <c r="J396" s="114"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -19647,7 +19119,7 @@
         <v>3</v>
       </c>
       <c r="F397" s="20"/>
-      <c r="I397" s="195"/>
+      <c r="I397" s="194"/>
       <c r="J397" s="114"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -19669,7 +19141,7 @@
         <v>10</v>
       </c>
       <c r="F398" s="20"/>
-      <c r="I398" s="195"/>
+      <c r="I398" s="194"/>
       <c r="J398" s="114"/>
     </row>
     <row r="399" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19694,38 +19166,20 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="I392:I398"/>
-    <mergeCell ref="A343:I344"/>
-    <mergeCell ref="I347:I353"/>
-    <mergeCell ref="A358:I359"/>
-    <mergeCell ref="I362:I368"/>
-    <mergeCell ref="A373:I374"/>
-    <mergeCell ref="I317:I323"/>
-    <mergeCell ref="A328:I329"/>
-    <mergeCell ref="I332:I338"/>
-    <mergeCell ref="I377:I383"/>
-    <mergeCell ref="A388:I389"/>
-    <mergeCell ref="A283:I284"/>
-    <mergeCell ref="I287:I293"/>
-    <mergeCell ref="A298:I299"/>
-    <mergeCell ref="I302:I308"/>
-    <mergeCell ref="A313:I314"/>
-    <mergeCell ref="I242:I248"/>
-    <mergeCell ref="A253:I254"/>
-    <mergeCell ref="I257:I263"/>
-    <mergeCell ref="A268:I269"/>
-    <mergeCell ref="I272:I278"/>
-    <mergeCell ref="A223:I224"/>
-    <mergeCell ref="A208:I209"/>
-    <mergeCell ref="I212:I218"/>
-    <mergeCell ref="I227:I233"/>
-    <mergeCell ref="A238:I239"/>
-    <mergeCell ref="T2:T8"/>
-    <mergeCell ref="T17:T23"/>
-    <mergeCell ref="T32:T38"/>
-    <mergeCell ref="L43:T44"/>
-    <mergeCell ref="L28:T29"/>
-    <mergeCell ref="L13:T14"/>
+    <mergeCell ref="A88:I89"/>
+    <mergeCell ref="I92:I98"/>
+    <mergeCell ref="A103:I104"/>
+    <mergeCell ref="I107:I113"/>
+    <mergeCell ref="A43:I44"/>
+    <mergeCell ref="I47:I53"/>
+    <mergeCell ref="A58:I59"/>
+    <mergeCell ref="I62:I68"/>
+    <mergeCell ref="A73:I74"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="A13:I14"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="A28:I29"/>
+    <mergeCell ref="I32:I38"/>
     <mergeCell ref="T47:T53"/>
     <mergeCell ref="T62:T68"/>
     <mergeCell ref="I197:I203"/>
@@ -19742,20 +19196,38 @@
     <mergeCell ref="I182:I188"/>
     <mergeCell ref="A118:I119"/>
     <mergeCell ref="I77:I83"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="A13:I14"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="A28:I29"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="A88:I89"/>
-    <mergeCell ref="I92:I98"/>
-    <mergeCell ref="A103:I104"/>
-    <mergeCell ref="I107:I113"/>
-    <mergeCell ref="A43:I44"/>
-    <mergeCell ref="I47:I53"/>
-    <mergeCell ref="A58:I59"/>
-    <mergeCell ref="I62:I68"/>
-    <mergeCell ref="A73:I74"/>
+    <mergeCell ref="T2:T8"/>
+    <mergeCell ref="T17:T23"/>
+    <mergeCell ref="T32:T38"/>
+    <mergeCell ref="L43:T44"/>
+    <mergeCell ref="L28:T29"/>
+    <mergeCell ref="L13:T14"/>
+    <mergeCell ref="A223:I224"/>
+    <mergeCell ref="A208:I209"/>
+    <mergeCell ref="I212:I218"/>
+    <mergeCell ref="I227:I233"/>
+    <mergeCell ref="A238:I239"/>
+    <mergeCell ref="I242:I248"/>
+    <mergeCell ref="A253:I254"/>
+    <mergeCell ref="I257:I263"/>
+    <mergeCell ref="A268:I269"/>
+    <mergeCell ref="I272:I278"/>
+    <mergeCell ref="A283:I284"/>
+    <mergeCell ref="I287:I293"/>
+    <mergeCell ref="A298:I299"/>
+    <mergeCell ref="I302:I308"/>
+    <mergeCell ref="A313:I314"/>
+    <mergeCell ref="I317:I323"/>
+    <mergeCell ref="A328:I329"/>
+    <mergeCell ref="I332:I338"/>
+    <mergeCell ref="I377:I383"/>
+    <mergeCell ref="A388:I389"/>
+    <mergeCell ref="I392:I398"/>
+    <mergeCell ref="A343:I344"/>
+    <mergeCell ref="I347:I353"/>
+    <mergeCell ref="A358:I359"/>
+    <mergeCell ref="I362:I368"/>
+    <mergeCell ref="A373:I374"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21849,7 +21321,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="H1" s="20"/>
-      <c r="I1" s="201">
+      <c r="I1" s="220">
         <f>GOT!AE3</f>
         <v>35247</v>
       </c>
@@ -21882,7 +21354,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="202"/>
+      <c r="I2" s="221"/>
       <c r="L2" s="55"/>
       <c r="M2" s="30" t="s">
         <v>112</v>
@@ -21902,7 +21374,7 @@
         <v>1.5</v>
       </c>
       <c r="S2" s="20"/>
-      <c r="T2" s="201">
+      <c r="T2" s="220">
         <f>GOT!F3</f>
         <v>40367</v>
       </c>
@@ -21926,7 +21398,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="202"/>
+      <c r="I3" s="221"/>
       <c r="L3" s="58" t="s">
         <v>119</v>
       </c>
@@ -21945,7 +21417,7 @@
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
-      <c r="T3" s="202"/>
+      <c r="T3" s="221"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
@@ -21966,7 +21438,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="202"/>
+      <c r="I4" s="221"/>
       <c r="L4" s="61" t="s">
         <v>114</v>
       </c>
@@ -21985,7 +21457,7 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
-      <c r="T4" s="202"/>
+      <c r="T4" s="221"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
@@ -22011,7 +21483,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="202"/>
+      <c r="I5" s="221"/>
       <c r="L5" s="63" t="s">
         <v>116</v>
       </c>
@@ -22030,7 +21502,7 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="202"/>
+      <c r="T5" s="221"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
@@ -22075,7 +21547,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="20"/>
-      <c r="T6" s="202"/>
+      <c r="T6" s="221"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
@@ -22178,7 +21650,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="201">
+      <c r="I11" s="220">
         <f>GOT!AD3</f>
         <v>35432</v>
       </c>
@@ -22202,7 +21674,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="202"/>
+      <c r="I12" s="221"/>
       <c r="L12" s="55"/>
       <c r="M12" s="30" t="s">
         <v>112</v>
@@ -22221,7 +21693,7 @@
         <f>SUM(O13:O17)/(SUM(N13:N17))</f>
         <v>1.5</v>
       </c>
-      <c r="T12" s="203">
+      <c r="T12" s="201">
         <f>GOT!E3</f>
         <v>40514</v>
       </c>
@@ -22245,7 +21717,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="202"/>
+      <c r="I13" s="221"/>
       <c r="L13" s="58" t="s">
         <v>119</v>
       </c>
@@ -22263,7 +21735,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
-      <c r="T13" s="204"/>
+      <c r="T13" s="202"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
@@ -22284,7 +21756,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="202"/>
+      <c r="I14" s="221"/>
       <c r="L14" s="61" t="s">
         <v>114</v>
       </c>
@@ -22302,7 +21774,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
-      <c r="T14" s="204"/>
+      <c r="T14" s="202"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
@@ -22328,7 +21800,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="202"/>
+      <c r="I15" s="221"/>
       <c r="L15" s="63" t="s">
         <v>116</v>
       </c>
@@ -22346,7 +21818,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
-      <c r="T15" s="204"/>
+      <c r="T15" s="202"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
@@ -22391,7 +21863,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="20"/>
-      <c r="T16" s="204"/>
+      <c r="T16" s="202"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -22485,7 +21957,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="H21" s="20"/>
-      <c r="I21" s="201">
+      <c r="I21" s="220">
         <f>GOT!AC3</f>
         <v>35606</v>
       </c>
@@ -22509,7 +21981,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="202"/>
+      <c r="I22" s="221"/>
       <c r="L22" s="55"/>
       <c r="M22" s="30" t="s">
         <v>112</v>
@@ -22528,7 +22000,7 @@
         <f>SUM(O23:O27)/(SUM(N23:N27))</f>
         <v>1.5</v>
       </c>
-      <c r="T22" s="203">
+      <c r="T22" s="201">
         <f>GOT!D3</f>
         <v>41086</v>
       </c>
@@ -22552,7 +22024,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="202"/>
+      <c r="I23" s="221"/>
       <c r="L23" s="58" t="s">
         <v>119</v>
       </c>
@@ -22570,7 +22042,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
-      <c r="T23" s="204"/>
+      <c r="T23" s="202"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
@@ -22591,7 +22063,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="202"/>
+      <c r="I24" s="221"/>
       <c r="L24" s="61" t="s">
         <v>114</v>
       </c>
@@ -22609,7 +22081,7 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="T24" s="204"/>
+      <c r="T24" s="202"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
@@ -22635,7 +22107,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="202"/>
+      <c r="I25" s="221"/>
       <c r="L25" s="63" t="s">
         <v>116</v>
       </c>
@@ -22653,7 +22125,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="T25" s="204"/>
+      <c r="T25" s="202"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="66" t="s">
@@ -22698,7 +22170,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="20"/>
-      <c r="T26" s="204"/>
+      <c r="T26" s="202"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -22791,7 +22263,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="201">
+      <c r="I31" s="220">
         <f>GOT!AB3</f>
         <v>35786</v>
       </c>
@@ -22815,7 +22287,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="202"/>
+      <c r="I32" s="221"/>
       <c r="L32" s="55"/>
       <c r="M32" s="30" t="s">
         <v>112</v>
@@ -22834,7 +22306,7 @@
         <f>SUM(O33:O37)/(SUM(N33:N37))</f>
         <v>1.5</v>
       </c>
-      <c r="T32" s="203">
+      <c r="T32" s="201">
         <f>GOT!C3</f>
         <v>41653</v>
       </c>
@@ -22858,7 +22330,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="202"/>
+      <c r="I33" s="221"/>
       <c r="L33" s="58" t="s">
         <v>119</v>
       </c>
@@ -22876,7 +22348,7 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
-      <c r="T33" s="204"/>
+      <c r="T33" s="202"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
@@ -22897,7 +22369,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="202"/>
+      <c r="I34" s="221"/>
       <c r="L34" s="61" t="s">
         <v>114</v>
       </c>
@@ -22915,7 +22387,7 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
-      <c r="T34" s="204"/>
+      <c r="T34" s="202"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
@@ -22941,7 +22413,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="20"/>
-      <c r="I35" s="202"/>
+      <c r="I35" s="221"/>
       <c r="L35" s="63" t="s">
         <v>116</v>
       </c>
@@ -22959,7 +22431,7 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
-      <c r="T35" s="204"/>
+      <c r="T35" s="202"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="66" t="s">
@@ -23004,7 +22476,7 @@
         <v>2</v>
       </c>
       <c r="S36" s="20"/>
-      <c r="T36" s="204"/>
+      <c r="T36" s="202"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
@@ -23097,7 +22569,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H41" s="20"/>
-      <c r="I41" s="201">
+      <c r="I41" s="220">
         <f>GOT!AA3</f>
         <v>36202</v>
       </c>
@@ -23121,7 +22593,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="202"/>
+      <c r="I42" s="221"/>
       <c r="L42" s="55"/>
       <c r="M42" s="30" t="s">
         <v>112</v>
@@ -23140,7 +22612,7 @@
         <f>SUM(O43:O47)/(SUM(N43:N47))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="T42" s="203">
+      <c r="T42" s="201">
         <f>GOT!B3</f>
         <v>42250.375</v>
       </c>
@@ -23164,7 +22636,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="202"/>
+      <c r="I43" s="221"/>
       <c r="L43" s="58" t="s">
         <v>119</v>
       </c>
@@ -23182,7 +22654,7 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
-      <c r="T43" s="204"/>
+      <c r="T43" s="202"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
@@ -23203,7 +22675,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="202"/>
+      <c r="I44" s="221"/>
       <c r="L44" s="61" t="s">
         <v>114</v>
       </c>
@@ -23221,7 +22693,7 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
-      <c r="T44" s="204"/>
+      <c r="T44" s="202"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
@@ -23247,7 +22719,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="20"/>
-      <c r="I45" s="202"/>
+      <c r="I45" s="221"/>
       <c r="L45" s="63" t="s">
         <v>116</v>
       </c>
@@ -23265,7 +22737,7 @@
       <c r="P45" s="20"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
-      <c r="T45" s="204"/>
+      <c r="T45" s="202"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="66" t="s">
@@ -23310,7 +22782,7 @@
         <v>2</v>
       </c>
       <c r="S46" s="20"/>
-      <c r="T46" s="204"/>
+      <c r="T46" s="202"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
@@ -23383,7 +22855,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="201">
+      <c r="I51" s="220">
         <f>GOT!Z3</f>
         <v>36364</v>
       </c>
@@ -23407,7 +22879,7 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="202"/>
+      <c r="I52" s="221"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
@@ -23428,7 +22900,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
-      <c r="I53" s="202"/>
+      <c r="I53" s="221"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
@@ -23449,7 +22921,7 @@
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
-      <c r="I54" s="202"/>
+      <c r="I54" s="221"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
@@ -23475,7 +22947,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="20"/>
-      <c r="I55" s="202"/>
+      <c r="I55" s="221"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="66" t="s">
@@ -23551,7 +23023,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="20"/>
-      <c r="I61" s="201">
+      <c r="I61" s="220">
         <f>GOT!Y3</f>
         <v>36567</v>
       </c>
@@ -23575,7 +23047,7 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="202"/>
+      <c r="I62" s="221"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
@@ -23596,7 +23068,7 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="202"/>
+      <c r="I63" s="221"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="63" t="s">
@@ -23617,7 +23089,7 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="202"/>
+      <c r="I64" s="221"/>
     </row>
     <row r="65" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
@@ -23643,7 +23115,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="20"/>
-      <c r="I65" s="202"/>
+      <c r="I65" s="221"/>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
@@ -23721,7 +23193,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="20"/>
-      <c r="I71" s="201">
+      <c r="I71" s="220">
         <f>GOT!X3</f>
         <v>36808</v>
       </c>
@@ -23745,17 +23217,17 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
-      <c r="I72" s="202"/>
+      <c r="I72" s="221"/>
       <c r="AY72" s="85" t="s">
         <v>132</v>
       </c>
       <c r="AZ72" s="86">
         <v>72.5</v>
       </c>
-      <c r="BA72" s="205" t="s">
+      <c r="BA72" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="BB72" s="207" t="s">
+      <c r="BB72" s="215" t="s">
         <v>113</v>
       </c>
     </row>
@@ -23778,11 +23250,11 @@
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
-      <c r="I73" s="202"/>
+      <c r="I73" s="221"/>
       <c r="AY73" s="87"/>
       <c r="AZ73" s="88"/>
-      <c r="BA73" s="206"/>
-      <c r="BB73" s="208"/>
+      <c r="BA73" s="214"/>
+      <c r="BB73" s="216"/>
     </row>
     <row r="74" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63" t="s">
@@ -23803,8 +23275,8 @@
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
-      <c r="I74" s="202"/>
-      <c r="AY74" s="209" t="s">
+      <c r="I74" s="221"/>
+      <c r="AY74" s="210" t="s">
         <v>133</v>
       </c>
       <c r="AZ74" s="89" t="s">
@@ -23813,7 +23285,7 @@
       <c r="BA74" s="59">
         <v>1</v>
       </c>
-      <c r="BB74" s="212">
+      <c r="BB74" s="203">
         <v>3</v>
       </c>
     </row>
@@ -23841,15 +23313,15 @@
         <v>4</v>
       </c>
       <c r="H75" s="20"/>
-      <c r="I75" s="202"/>
-      <c r="AY75" s="210"/>
+      <c r="I75" s="221"/>
+      <c r="AY75" s="211"/>
       <c r="AZ75" s="59">
         <v>50</v>
       </c>
       <c r="BA75" s="59">
         <v>2</v>
       </c>
-      <c r="BB75" s="212"/>
+      <c r="BB75" s="203"/>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
@@ -23871,14 +23343,14 @@
       <c r="G76" s="67"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
-      <c r="AY76" s="210"/>
+      <c r="AY76" s="211"/>
       <c r="AZ76" s="59">
         <v>40</v>
       </c>
       <c r="BA76" s="59">
         <v>3</v>
       </c>
-      <c r="BB76" s="212"/>
+      <c r="BB76" s="203"/>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
@@ -23890,14 +23362,14 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
-      <c r="AY77" s="211"/>
+      <c r="AY77" s="212"/>
       <c r="AZ77" s="59">
         <v>30</v>
       </c>
       <c r="BA77" s="59">
         <v>4</v>
       </c>
-      <c r="BB77" s="212"/>
+      <c r="BB77" s="203"/>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="200"/>
@@ -23909,7 +23381,7 @@
       <c r="G78" s="200"/>
       <c r="H78" s="200"/>
       <c r="I78" s="200"/>
-      <c r="AY78" s="213" t="s">
+      <c r="AY78" s="217" t="s">
         <v>114</v>
       </c>
       <c r="AZ78" s="90">
@@ -23918,7 +23390,7 @@
       <c r="BA78" s="59">
         <v>1</v>
       </c>
-      <c r="BB78" s="212">
+      <c r="BB78" s="203">
         <v>4</v>
       </c>
     </row>
@@ -23932,24 +23404,24 @@
       <c r="G79" s="200"/>
       <c r="H79" s="200"/>
       <c r="I79" s="200"/>
-      <c r="AY79" s="214"/>
+      <c r="AY79" s="218"/>
       <c r="AZ79" s="59">
         <v>30</v>
       </c>
       <c r="BA79" s="59">
         <v>2</v>
       </c>
-      <c r="BB79" s="212"/>
+      <c r="BB79" s="203"/>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AY80" s="214"/>
+      <c r="AY80" s="218"/>
       <c r="AZ80" s="59">
         <v>40</v>
       </c>
       <c r="BA80" s="59">
         <v>3</v>
       </c>
-      <c r="BB80" s="212"/>
+      <c r="BB80" s="203"/>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
@@ -23970,20 +23442,20 @@
         <f>SUM(D82:D86)/(SUM(C82:C86))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I81" s="203">
+      <c r="I81" s="201">
         <f>GOT!W3</f>
         <v>36938</v>
       </c>
       <c r="AQ81" s="36"/>
       <c r="AR81" s="36"/>
-      <c r="AY81" s="215"/>
+      <c r="AY81" s="219"/>
       <c r="AZ81" s="89" t="s">
         <v>135</v>
       </c>
       <c r="BA81" s="59">
         <v>4</v>
       </c>
-      <c r="BB81" s="212"/>
+      <c r="BB81" s="203"/>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="58" t="s">
@@ -24003,10 +23475,10 @@
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
-      <c r="I82" s="204"/>
+      <c r="I82" s="202"/>
       <c r="AQ82" s="36"/>
       <c r="AR82" s="36"/>
-      <c r="AY82" s="209" t="s">
+      <c r="AY82" s="210" t="s">
         <v>136</v>
       </c>
       <c r="AZ82" s="59">
@@ -24015,7 +23487,7 @@
       <c r="BA82" s="59">
         <v>1</v>
       </c>
-      <c r="BB82" s="212">
+      <c r="BB82" s="203">
         <v>1</v>
       </c>
     </row>
@@ -24037,17 +23509,17 @@
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
-      <c r="I83" s="204"/>
+      <c r="I83" s="202"/>
       <c r="AQ83" s="36"/>
       <c r="AR83" s="36"/>
-      <c r="AY83" s="210"/>
+      <c r="AY83" s="211"/>
       <c r="AZ83" s="59">
         <v>0.1</v>
       </c>
       <c r="BA83" s="59">
         <v>2</v>
       </c>
-      <c r="BB83" s="212"/>
+      <c r="BB83" s="203"/>
     </row>
     <row r="84" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="63" t="s">
@@ -24067,17 +23539,17 @@
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
-      <c r="I84" s="204"/>
+      <c r="I84" s="202"/>
       <c r="AQ84" s="69"/>
       <c r="AR84" s="69"/>
-      <c r="AY84" s="210"/>
+      <c r="AY84" s="211"/>
       <c r="AZ84" s="59">
         <v>0.2</v>
       </c>
       <c r="BA84" s="59">
         <v>3</v>
       </c>
-      <c r="BB84" s="212"/>
+      <c r="BB84" s="203"/>
     </row>
     <row r="85" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="61" t="s">
@@ -24103,17 +23575,17 @@
         <v>3</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="204"/>
+      <c r="I85" s="202"/>
       <c r="AQ85" s="69"/>
       <c r="AR85" s="69"/>
-      <c r="AY85" s="211"/>
+      <c r="AY85" s="212"/>
       <c r="AZ85" s="89" t="s">
         <v>137</v>
       </c>
       <c r="BA85" s="59">
         <v>4</v>
       </c>
-      <c r="BB85" s="212"/>
+      <c r="BB85" s="203"/>
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="66" t="s">
@@ -24136,7 +23608,7 @@
       <c r="H86" s="20"/>
       <c r="AQ86" s="45"/>
       <c r="AR86" s="69"/>
-      <c r="AY86" s="216" t="s">
+      <c r="AY86" s="204" t="s">
         <v>110</v>
       </c>
       <c r="AZ86" s="59">
@@ -24145,19 +23617,19 @@
       <c r="BA86" s="59">
         <v>1</v>
       </c>
-      <c r="BB86" s="219">
+      <c r="BB86" s="207">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AY87" s="217"/>
+      <c r="AY87" s="205"/>
       <c r="AZ87" s="59">
         <v>2</v>
       </c>
       <c r="BA87" s="59">
         <v>2</v>
       </c>
-      <c r="BB87" s="220"/>
+      <c r="BB87" s="208"/>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="200"/>
@@ -24169,14 +23641,14 @@
       <c r="G88" s="200"/>
       <c r="H88" s="200"/>
       <c r="I88" s="200"/>
-      <c r="AY88" s="217"/>
+      <c r="AY88" s="205"/>
       <c r="AZ88" s="59">
         <v>2.5</v>
       </c>
       <c r="BA88" s="59">
         <v>3</v>
       </c>
-      <c r="BB88" s="220"/>
+      <c r="BB88" s="208"/>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="200"/>
@@ -24190,17 +23662,17 @@
       <c r="I89" s="200"/>
       <c r="AQ89" s="20"/>
       <c r="AR89" s="20"/>
-      <c r="AY89" s="218"/>
+      <c r="AY89" s="206"/>
       <c r="AZ89" s="59" t="s">
         <v>138</v>
       </c>
       <c r="BA89" s="59">
         <v>4</v>
       </c>
-      <c r="BB89" s="221"/>
+      <c r="BB89" s="209"/>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AY90" s="209" t="s">
+      <c r="AY90" s="210" t="s">
         <v>139</v>
       </c>
       <c r="AZ90" s="89" t="s">
@@ -24209,7 +23681,7 @@
       <c r="BA90" s="59">
         <v>1</v>
       </c>
-      <c r="BB90" s="212">
+      <c r="BB90" s="203">
         <v>2</v>
       </c>
     </row>
@@ -24232,18 +23704,18 @@
         <f>SUM(D92:D96)/(SUM(C92:C96))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I91" s="203">
+      <c r="I91" s="201">
         <f>GOT!V3</f>
         <v>37110</v>
       </c>
-      <c r="AY91" s="210"/>
+      <c r="AY91" s="211"/>
       <c r="AZ91" s="90">
         <v>35</v>
       </c>
       <c r="BA91" s="59">
         <v>2</v>
       </c>
-      <c r="BB91" s="212"/>
+      <c r="BB91" s="203"/>
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="58" t="s">
@@ -24263,7 +23735,7 @@
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
-      <c r="I92" s="204"/>
+      <c r="I92" s="202"/>
       <c r="AQ92" s="20"/>
       <c r="AR92" s="20"/>
       <c r="AT92" s="112">
@@ -24273,14 +23745,14 @@
       <c r="AU92" s="1">
         <v>2010</v>
       </c>
-      <c r="AY92" s="210"/>
+      <c r="AY92" s="211"/>
       <c r="AZ92" s="90">
         <v>30</v>
       </c>
       <c r="BA92" s="59">
         <v>3</v>
       </c>
-      <c r="BB92" s="212"/>
+      <c r="BB92" s="203"/>
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
@@ -24300,7 +23772,7 @@
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
-      <c r="I93" s="204"/>
+      <c r="I93" s="202"/>
       <c r="AQ93" s="20"/>
       <c r="AR93" s="20"/>
       <c r="AT93" s="112">
@@ -24310,14 +23782,14 @@
       <c r="AU93" s="1">
         <v>2012</v>
       </c>
-      <c r="AY93" s="211"/>
+      <c r="AY93" s="212"/>
       <c r="AZ93" s="90">
         <v>25</v>
       </c>
       <c r="BA93" s="59">
         <v>4</v>
       </c>
-      <c r="BB93" s="212"/>
+      <c r="BB93" s="203"/>
     </row>
     <row r="94" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="63" t="s">
@@ -24337,7 +23809,7 @@
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
-      <c r="I94" s="204"/>
+      <c r="I94" s="202"/>
       <c r="AQ94" s="20"/>
       <c r="AR94" s="20"/>
       <c r="AT94" s="112">
@@ -24372,7 +23844,7 @@
         <v>3</v>
       </c>
       <c r="H95" s="20"/>
-      <c r="I95" s="204"/>
+      <c r="I95" s="202"/>
       <c r="AT95" s="112">
         <f>$R$32</f>
         <v>1.5</v>
@@ -24453,7 +23925,7 @@
         <f>SUM(D102:D106)/(SUM(C102:C106))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I101" s="203">
+      <c r="I101" s="201">
         <f>GOT!U3</f>
         <v>37274</v>
       </c>
@@ -24476,7 +23948,7 @@
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
-      <c r="I102" s="204"/>
+      <c r="I102" s="202"/>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
@@ -24496,7 +23968,7 @@
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
-      <c r="I103" s="204"/>
+      <c r="I103" s="202"/>
     </row>
     <row r="104" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="63" t="s">
@@ -24516,7 +23988,7 @@
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
-      <c r="I104" s="204"/>
+      <c r="I104" s="202"/>
     </row>
     <row r="105" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="61" t="s">
@@ -24542,7 +24014,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="20"/>
-      <c r="I105" s="204"/>
+      <c r="I105" s="202"/>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" s="66" t="s">
@@ -24605,7 +24077,7 @@
         <f>SUM(D112:D116)/(SUM(C112:C116))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I111" s="203">
+      <c r="I111" s="201">
         <f>GOT!T3</f>
         <v>37636</v>
       </c>
@@ -24628,7 +24100,7 @@
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
-      <c r="I112" s="204"/>
+      <c r="I112" s="202"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
@@ -24648,7 +24120,7 @@
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
-      <c r="I113" s="204"/>
+      <c r="I113" s="202"/>
     </row>
     <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="63" t="s">
@@ -24668,7 +24140,7 @@
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
-      <c r="I114" s="204"/>
+      <c r="I114" s="202"/>
     </row>
     <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="61" t="s">
@@ -24694,7 +24166,7 @@
         <v>3</v>
       </c>
       <c r="H115" s="20"/>
-      <c r="I115" s="204"/>
+      <c r="I115" s="202"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="66" t="s">
@@ -24757,7 +24229,7 @@
         <f>SUM(D122:D126)/(SUM(C122:C126))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I121" s="203">
+      <c r="I121" s="201">
         <f>GOT!S3</f>
         <v>37819</v>
       </c>
@@ -24780,7 +24252,7 @@
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
-      <c r="I122" s="204"/>
+      <c r="I122" s="202"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
@@ -24800,7 +24272,7 @@
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
-      <c r="I123" s="204"/>
+      <c r="I123" s="202"/>
     </row>
     <row r="124" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="63" t="s">
@@ -24820,7 +24292,7 @@
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
-      <c r="I124" s="204"/>
+      <c r="I124" s="202"/>
       <c r="N124" s="124"/>
       <c r="O124" s="124"/>
       <c r="P124" s="132"/>
@@ -24850,7 +24322,7 @@
         <v>3</v>
       </c>
       <c r="H125" s="20"/>
-      <c r="I125" s="204"/>
+      <c r="I125" s="202"/>
       <c r="N125" s="15"/>
       <c r="O125" s="125"/>
       <c r="P125" s="132"/>
@@ -24941,7 +24413,7 @@
         <f>SUM(D132:D136)/(SUM(C132:C136))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I131" s="203">
+      <c r="I131" s="201">
         <f>GOT!R3</f>
         <v>38022</v>
       </c>
@@ -24968,7 +24440,7 @@
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
-      <c r="I132" s="204"/>
+      <c r="I132" s="202"/>
       <c r="N132" s="131"/>
       <c r="O132" s="116"/>
       <c r="P132" s="116"/>
@@ -24992,7 +24464,7 @@
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
-      <c r="I133" s="204"/>
+      <c r="I133" s="202"/>
       <c r="N133" s="131"/>
       <c r="O133" s="126"/>
       <c r="P133" s="116"/>
@@ -25016,7 +24488,7 @@
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
-      <c r="I134" s="204"/>
+      <c r="I134" s="202"/>
       <c r="N134" s="128"/>
       <c r="O134" s="116"/>
       <c r="P134" s="116"/>
@@ -25046,7 +24518,7 @@
         <v>3</v>
       </c>
       <c r="H135" s="20"/>
-      <c r="I135" s="204"/>
+      <c r="I135" s="202"/>
       <c r="N135" s="129"/>
       <c r="O135" s="116"/>
       <c r="P135" s="116"/>
@@ -25140,7 +24612,7 @@
         <f>SUM(D142:D146)/(SUM(C142:C146))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I141" s="203">
+      <c r="I141" s="201">
         <f>GOT!Q3</f>
         <v>38225</v>
       </c>
@@ -25168,7 +24640,7 @@
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
-      <c r="I142" s="204"/>
+      <c r="I142" s="202"/>
       <c r="J142" s="20"/>
       <c r="N142" s="128"/>
       <c r="O142" s="126"/>
@@ -25193,7 +24665,7 @@
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
-      <c r="I143" s="204"/>
+      <c r="I143" s="202"/>
       <c r="J143" s="20"/>
       <c r="N143" s="129"/>
       <c r="O143" s="127"/>
@@ -25218,7 +24690,7 @@
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
-      <c r="I144" s="204"/>
+      <c r="I144" s="202"/>
       <c r="J144" s="20"/>
       <c r="N144" s="129"/>
       <c r="O144" s="127"/>
@@ -25249,7 +24721,7 @@
         <v>3</v>
       </c>
       <c r="H145" s="20"/>
-      <c r="I145" s="204"/>
+      <c r="I145" s="202"/>
       <c r="J145" s="20"/>
       <c r="N145" s="129"/>
       <c r="O145" s="127"/>
@@ -25326,7 +24798,7 @@
         <f>SUM(D152:D156)/(SUM(C152:C156))</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="I151" s="203">
+      <c r="I151" s="201">
         <f>GOT!P3</f>
         <v>38393</v>
       </c>
@@ -25350,7 +24822,7 @@
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
-      <c r="I152" s="204"/>
+      <c r="I152" s="202"/>
       <c r="J152" s="36"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
@@ -25371,7 +24843,7 @@
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
-      <c r="I153" s="204"/>
+      <c r="I153" s="202"/>
       <c r="J153" s="36"/>
     </row>
     <row r="154" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25392,7 +24864,7 @@
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
-      <c r="I154" s="204"/>
+      <c r="I154" s="202"/>
     </row>
     <row r="155" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="61" t="s">
@@ -25418,7 +24890,7 @@
         <v>3</v>
       </c>
       <c r="H155" s="20"/>
-      <c r="I155" s="204"/>
+      <c r="I155" s="202"/>
       <c r="J155" s="20"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
@@ -25491,7 +24963,7 @@
         <f>SUM(D162:D166)/(SUM(C162:C166))</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="I161" s="203">
+      <c r="I161" s="201">
         <f>GOT!O3</f>
         <v>38546</v>
       </c>
@@ -25515,7 +24987,7 @@
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
-      <c r="I162" s="204"/>
+      <c r="I162" s="202"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="61" t="s">
@@ -25535,7 +25007,7 @@
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
-      <c r="I163" s="204"/>
+      <c r="I163" s="202"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="63" t="s">
@@ -25555,7 +25027,7 @@
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
-      <c r="I164" s="204"/>
+      <c r="I164" s="202"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="61" t="s">
@@ -25581,7 +25053,7 @@
         <v>3</v>
       </c>
       <c r="H165" s="20"/>
-      <c r="I165" s="204"/>
+      <c r="I165" s="202"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="66" t="s">
@@ -25644,7 +25116,7 @@
         <f>SUM(D172:D176)/(SUM(C172:C176))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I171" s="203">
+      <c r="I171" s="201">
         <f>GOT!N3</f>
         <v>38748</v>
       </c>
@@ -25667,7 +25139,7 @@
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
-      <c r="I172" s="204"/>
+      <c r="I172" s="202"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="61" t="s">
@@ -25687,7 +25159,7 @@
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
-      <c r="I173" s="204"/>
+      <c r="I173" s="202"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="63" t="s">
@@ -25707,7 +25179,7 @@
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
-      <c r="I174" s="204"/>
+      <c r="I174" s="202"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="61" t="s">
@@ -25733,7 +25205,7 @@
         <v>3</v>
       </c>
       <c r="H175" s="20"/>
-      <c r="I175" s="204"/>
+      <c r="I175" s="202"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="66" t="s">
@@ -25796,7 +25268,7 @@
         <f>SUM(D182:D186)/(SUM(C182:C186))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I181" s="203">
+      <c r="I181" s="201">
         <f>GOT!M3</f>
         <v>39051</v>
       </c>
@@ -25819,7 +25291,7 @@
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
-      <c r="I182" s="204"/>
+      <c r="I182" s="202"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="61" t="s">
@@ -25839,7 +25311,7 @@
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
-      <c r="I183" s="204"/>
+      <c r="I183" s="202"/>
     </row>
     <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="63" t="s">
@@ -25859,7 +25331,7 @@
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
-      <c r="I184" s="204"/>
+      <c r="I184" s="202"/>
     </row>
     <row r="185" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="61" t="s">
@@ -25885,7 +25357,7 @@
         <v>3</v>
       </c>
       <c r="H185" s="20"/>
-      <c r="I185" s="204"/>
+      <c r="I185" s="202"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="66" t="s">
@@ -25948,7 +25420,7 @@
         <f>SUM(D192:D196)/(SUM(C192:C196))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I191" s="203">
+      <c r="I191" s="201">
         <f>GOT!L3</f>
         <v>39191</v>
       </c>
@@ -25971,7 +25443,7 @@
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
-      <c r="I192" s="204"/>
+      <c r="I192" s="202"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="61" t="s">
@@ -25991,7 +25463,7 @@
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
-      <c r="I193" s="204"/>
+      <c r="I193" s="202"/>
     </row>
     <row r="194" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="63" t="s">
@@ -26011,7 +25483,7 @@
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
-      <c r="I194" s="204"/>
+      <c r="I194" s="202"/>
     </row>
     <row r="195" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="61" t="s">
@@ -26037,7 +25509,7 @@
         <v>3</v>
       </c>
       <c r="H195" s="20"/>
-      <c r="I195" s="204"/>
+      <c r="I195" s="202"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="66" t="s">
@@ -26100,7 +25572,7 @@
         <f>SUM(D202:D206)/(SUM(C202:C206))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I201" s="203">
+      <c r="I201" s="201">
         <f>GOT!K3</f>
         <v>39394</v>
       </c>
@@ -26123,7 +25595,7 @@
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
-      <c r="I202" s="204"/>
+      <c r="I202" s="202"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="61" t="s">
@@ -26143,7 +25615,7 @@
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
-      <c r="I203" s="204"/>
+      <c r="I203" s="202"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="63" t="s">
@@ -26163,7 +25635,7 @@
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
-      <c r="I204" s="204"/>
+      <c r="I204" s="202"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="61" t="s">
@@ -26189,7 +25661,7 @@
         <v>3</v>
       </c>
       <c r="H205" s="20"/>
-      <c r="I205" s="204"/>
+      <c r="I205" s="202"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="66" t="s">
@@ -26262,7 +25734,7 @@
         <f>SUM(D212:D216)/(SUM(C212:C216))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I211" s="203">
+      <c r="I211" s="201">
         <f>GOT!J3</f>
         <v>39521</v>
       </c>
@@ -26285,7 +25757,7 @@
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
       <c r="G212" s="20"/>
-      <c r="I212" s="204"/>
+      <c r="I212" s="202"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="61" t="s">
@@ -26305,7 +25777,7 @@
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
-      <c r="I213" s="204"/>
+      <c r="I213" s="202"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="63" t="s">
@@ -26325,7 +25797,7 @@
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
       <c r="G214" s="20"/>
-      <c r="I214" s="204"/>
+      <c r="I214" s="202"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="61" t="s">
@@ -26351,7 +25823,7 @@
         <v>3</v>
       </c>
       <c r="H215" s="20"/>
-      <c r="I215" s="204"/>
+      <c r="I215" s="202"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="66" t="s">
@@ -26414,7 +25886,7 @@
         <f>SUM(D222:D226)/(SUM(C222:C226))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I221" s="203">
+      <c r="I221" s="201">
         <f>GOT!I3</f>
         <v>39695</v>
       </c>
@@ -26437,7 +25909,7 @@
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
       <c r="G222" s="20"/>
-      <c r="I222" s="204"/>
+      <c r="I222" s="202"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="61" t="s">
@@ -26457,7 +25929,7 @@
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
-      <c r="I223" s="204"/>
+      <c r="I223" s="202"/>
     </row>
     <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="63" t="s">
@@ -26477,7 +25949,7 @@
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
-      <c r="I224" s="204"/>
+      <c r="I224" s="202"/>
     </row>
     <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="61" t="s">
@@ -26503,7 +25975,7 @@
         <v>3</v>
       </c>
       <c r="H225" s="20"/>
-      <c r="I225" s="204"/>
+      <c r="I225" s="202"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="66" t="s">
@@ -26566,7 +26038,7 @@
         <f>SUM(D232:D236)/(SUM(C232:C236))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I231" s="203">
+      <c r="I231" s="201">
         <f>GOT!H3</f>
         <v>39869</v>
       </c>
@@ -26589,7 +26061,7 @@
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
-      <c r="I232" s="204"/>
+      <c r="I232" s="202"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="61" t="s">
@@ -26609,7 +26081,7 @@
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
-      <c r="I233" s="204"/>
+      <c r="I233" s="202"/>
     </row>
     <row r="234" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="63" t="s">
@@ -26629,7 +26101,7 @@
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
-      <c r="I234" s="204"/>
+      <c r="I234" s="202"/>
     </row>
     <row r="235" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="61" t="s">
@@ -26655,7 +26127,7 @@
         <v>3</v>
       </c>
       <c r="H235" s="20"/>
-      <c r="I235" s="204"/>
+      <c r="I235" s="202"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="66" t="s">
@@ -26718,7 +26190,7 @@
         <f>SUM(D242:D246)/(SUM(C242:C246))</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I241" s="203">
+      <c r="I241" s="201">
         <f>GOT!G3</f>
         <v>40095</v>
       </c>
@@ -26741,7 +26213,7 @@
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
-      <c r="I242" s="204"/>
+      <c r="I242" s="202"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="61" t="s">
@@ -26761,7 +26233,7 @@
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
-      <c r="I243" s="204"/>
+      <c r="I243" s="202"/>
     </row>
     <row r="244" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="63" t="s">
@@ -26781,7 +26253,7 @@
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
-      <c r="I244" s="204"/>
+      <c r="I244" s="202"/>
     </row>
     <row r="245" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="61" t="s">
@@ -26807,7 +26279,7 @@
         <v>3</v>
       </c>
       <c r="H245" s="20"/>
-      <c r="I245" s="204"/>
+      <c r="I245" s="202"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="66" t="s">
@@ -26831,16 +26303,50 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A238:I239"/>
-    <mergeCell ref="I201:I205"/>
-    <mergeCell ref="I211:I215"/>
-    <mergeCell ref="I221:I225"/>
-    <mergeCell ref="I231:I235"/>
-    <mergeCell ref="A198:I199"/>
-    <mergeCell ref="A208:I209"/>
-    <mergeCell ref="A188:I189"/>
-    <mergeCell ref="A218:I219"/>
-    <mergeCell ref="A228:I229"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="A58:I59"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="A48:I49"/>
+    <mergeCell ref="A38:I39"/>
+    <mergeCell ref="I1:I5"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="A18:I19"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="I111:I115"/>
+    <mergeCell ref="T12:T16"/>
+    <mergeCell ref="T32:T36"/>
+    <mergeCell ref="L39:T40"/>
+    <mergeCell ref="T42:T46"/>
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="A88:I89"/>
+    <mergeCell ref="I91:I95"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="A78:I79"/>
+    <mergeCell ref="A98:I99"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="A108:I109"/>
+    <mergeCell ref="A28:I29"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="I61:I65"/>
+    <mergeCell ref="T2:T6"/>
+    <mergeCell ref="L9:T10"/>
+    <mergeCell ref="L19:T20"/>
+    <mergeCell ref="T22:T26"/>
+    <mergeCell ref="L29:T30"/>
+    <mergeCell ref="BA72:BA73"/>
+    <mergeCell ref="BB72:BB73"/>
+    <mergeCell ref="AY74:AY77"/>
+    <mergeCell ref="BB74:BB77"/>
+    <mergeCell ref="AY78:AY81"/>
+    <mergeCell ref="BB78:BB81"/>
+    <mergeCell ref="BB82:BB85"/>
+    <mergeCell ref="AY86:AY89"/>
+    <mergeCell ref="BB86:BB89"/>
+    <mergeCell ref="AY90:AY93"/>
+    <mergeCell ref="BB90:BB93"/>
+    <mergeCell ref="AY82:AY85"/>
     <mergeCell ref="I241:I245"/>
     <mergeCell ref="A118:I119"/>
     <mergeCell ref="A128:I129"/>
@@ -26857,50 +26363,16 @@
     <mergeCell ref="I181:I185"/>
     <mergeCell ref="I191:I195"/>
     <mergeCell ref="A178:I179"/>
-    <mergeCell ref="BB82:BB85"/>
-    <mergeCell ref="AY86:AY89"/>
-    <mergeCell ref="BB86:BB89"/>
-    <mergeCell ref="AY90:AY93"/>
-    <mergeCell ref="BB90:BB93"/>
-    <mergeCell ref="AY82:AY85"/>
-    <mergeCell ref="BA72:BA73"/>
-    <mergeCell ref="BB72:BB73"/>
-    <mergeCell ref="AY74:AY77"/>
-    <mergeCell ref="BB74:BB77"/>
-    <mergeCell ref="AY78:AY81"/>
-    <mergeCell ref="BB78:BB81"/>
-    <mergeCell ref="T2:T6"/>
-    <mergeCell ref="L9:T10"/>
-    <mergeCell ref="L19:T20"/>
-    <mergeCell ref="T22:T26"/>
-    <mergeCell ref="L29:T30"/>
-    <mergeCell ref="I111:I115"/>
-    <mergeCell ref="T12:T16"/>
-    <mergeCell ref="T32:T36"/>
-    <mergeCell ref="L39:T40"/>
-    <mergeCell ref="T42:T46"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="A88:I89"/>
-    <mergeCell ref="I91:I95"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="A78:I79"/>
-    <mergeCell ref="A98:I99"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="A108:I109"/>
-    <mergeCell ref="A28:I29"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="I61:I65"/>
-    <mergeCell ref="I1:I5"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="A18:I19"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="A58:I59"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="A48:I49"/>
-    <mergeCell ref="A38:I39"/>
+    <mergeCell ref="A198:I199"/>
+    <mergeCell ref="A208:I209"/>
+    <mergeCell ref="A188:I189"/>
+    <mergeCell ref="A218:I219"/>
+    <mergeCell ref="A228:I229"/>
+    <mergeCell ref="A238:I239"/>
+    <mergeCell ref="I201:I205"/>
+    <mergeCell ref="I211:I215"/>
+    <mergeCell ref="I221:I225"/>
+    <mergeCell ref="I231:I235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26911,7 +26383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BG368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:AG1"/>
     </sheetView>
   </sheetViews>
@@ -31421,7 +30893,7 @@
         <f t="shared" si="0"/>
         <v>0.3352941176470588</v>
       </c>
-      <c r="V59" s="195">
+      <c r="V59" s="194">
         <v>2015</v>
       </c>
       <c r="X59" s="120" t="s">
@@ -31497,7 +30969,7 @@
         <f t="shared" si="0"/>
         <v>0.34705882352941175</v>
       </c>
-      <c r="V60" s="195"/>
+      <c r="V60" s="194"/>
       <c r="X60" s="1" t="s">
         <v>162</v>
       </c>
@@ -31571,7 +31043,7 @@
         <f t="shared" si="0"/>
         <v>0.40588235294117647</v>
       </c>
-      <c r="V61" s="195"/>
+      <c r="V61" s="194"/>
       <c r="X61" s="120" t="s">
         <v>163</v>
       </c>
@@ -31680,7 +31152,7 @@
         <f t="shared" si="0"/>
         <v>0.30294117647058821</v>
       </c>
-      <c r="V62" s="195"/>
+      <c r="V62" s="194"/>
       <c r="X62" s="1" t="s">
         <v>164</v>
       </c>
@@ -31754,7 +31226,7 @@
         <f t="shared" si="0"/>
         <v>0.3235294117647059</v>
       </c>
-      <c r="V63" s="195"/>
+      <c r="V63" s="194"/>
       <c r="X63" s="120" t="s">
         <v>165</v>
       </c>
@@ -31828,7 +31300,7 @@
         <f t="shared" si="0"/>
         <v>0.38823529411764707</v>
       </c>
-      <c r="V64" s="195"/>
+      <c r="V64" s="194"/>
       <c r="X64" s="1" t="s">
         <v>166</v>
       </c>
@@ -31902,7 +31374,7 @@
         <f t="shared" si="0"/>
         <v>0.28235294117647058</v>
       </c>
-      <c r="V65" s="195"/>
+      <c r="V65" s="194"/>
       <c r="X65" s="120" t="s">
         <v>167</v>
       </c>
@@ -31976,7 +31448,7 @@
         <f t="shared" si="0"/>
         <v>0.32058823529411767</v>
       </c>
-      <c r="V66" s="195"/>
+      <c r="V66" s="194"/>
       <c r="X66" s="1" t="s">
         <v>168</v>
       </c>
@@ -32050,7 +31522,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="V67" s="195"/>
+      <c r="V67" s="194"/>
       <c r="X67" s="120" t="s">
         <v>169</v>
       </c>
@@ -32124,7 +31596,7 @@
         <f t="shared" ref="G68:G131" si="3">F68/$C$7</f>
         <v>0.2411764705882353</v>
       </c>
-      <c r="V68" s="195"/>
+      <c r="V68" s="194"/>
       <c r="X68" s="1" t="s">
         <v>170</v>
       </c>
@@ -32198,7 +31670,7 @@
         <f t="shared" si="3"/>
         <v>0.25588235294117645</v>
       </c>
-      <c r="V69" s="195"/>
+      <c r="V69" s="194"/>
       <c r="X69" s="120" t="s">
         <v>171</v>
       </c>
@@ -32272,7 +31744,7 @@
         <f t="shared" si="3"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="V70" s="195"/>
+      <c r="V70" s="194"/>
       <c r="X70" s="1" t="s">
         <v>172</v>
       </c>
@@ -32432,7 +31904,7 @@
         <f t="shared" si="3"/>
         <v>0.32058823529411767</v>
       </c>
-      <c r="V73" s="195">
+      <c r="V73" s="194">
         <v>2016</v>
       </c>
       <c r="X73" s="120" t="s">
@@ -32508,7 +31980,7 @@
         <f t="shared" si="3"/>
         <v>0.3352941176470588</v>
       </c>
-      <c r="V74" s="195"/>
+      <c r="V74" s="194"/>
       <c r="X74" s="1" t="s">
         <v>162</v>
       </c>
@@ -32582,7 +32054,7 @@
         <f t="shared" si="3"/>
         <v>0.57816314697265592</v>
       </c>
-      <c r="V75" s="195"/>
+      <c r="V75" s="194"/>
       <c r="X75" s="120" t="s">
         <v>163</v>
       </c>
@@ -32656,7 +32128,7 @@
         <f t="shared" si="3"/>
         <v>0.47479463465073529</v>
       </c>
-      <c r="V76" s="195"/>
+      <c r="V76" s="194"/>
       <c r="X76" s="1" t="s">
         <v>164</v>
       </c>
@@ -32730,7 +32202,7 @@
         <f t="shared" si="3"/>
         <v>0.7288360146915206</v>
       </c>
-      <c r="V77" s="195"/>
+      <c r="V77" s="194"/>
       <c r="X77" s="120" t="s">
         <v>165</v>
       </c>
@@ -32804,7 +32276,7 @@
         <f t="shared" si="3"/>
         <v>0.68153174905215885</v>
       </c>
-      <c r="V78" s="195"/>
+      <c r="V78" s="194"/>
       <c r="X78" s="1" t="s">
         <v>166</v>
       </c>
@@ -32878,7 +32350,7 @@
         <f t="shared" si="3"/>
         <v>0.54224700927734404</v>
       </c>
-      <c r="V79" s="195"/>
+      <c r="V79" s="194"/>
       <c r="X79" s="120" t="s">
         <v>167</v>
       </c>
@@ -32952,7 +32424,7 @@
         <f t="shared" si="3"/>
         <v>0.36441798490636484</v>
       </c>
-      <c r="V80" s="195"/>
+      <c r="V80" s="194"/>
       <c r="X80" s="1" t="s">
         <v>168</v>
       </c>
@@ -33026,7 +32498,7 @@
         <f t="shared" si="3"/>
         <v>0.37580606797162353</v>
       </c>
-      <c r="V81" s="195"/>
+      <c r="V81" s="194"/>
       <c r="X81" s="120" t="s">
         <v>169</v>
       </c>
@@ -33100,7 +32572,7 @@
         <f t="shared" si="3"/>
         <v>0.35609595354865581</v>
       </c>
-      <c r="V82" s="195"/>
+      <c r="V82" s="194"/>
       <c r="X82" s="1" t="s">
         <v>170</v>
       </c>
@@ -33174,7 +32646,7 @@
         <f t="shared" si="3"/>
         <v>0.40646622601677357</v>
       </c>
-      <c r="V83" s="195"/>
+      <c r="V83" s="194"/>
       <c r="X83" s="120" t="s">
         <v>171</v>
       </c>
@@ -33248,7 +32720,7 @@
         <f t="shared" si="3"/>
         <v>0.4419444364659913</v>
       </c>
-      <c r="V84" s="195"/>
+      <c r="V84" s="194"/>
       <c r="X84" s="1" t="s">
         <v>172</v>
       </c>
@@ -44525,10 +43997,10 @@
       <c r="R9" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="S9" s="195">
+      <c r="S9" s="194">
         <v>2002</v>
       </c>
-      <c r="T9" s="195"/>
+      <c r="T9" s="194"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
@@ -44584,8 +44056,8 @@
       <c r="R10" s="179" t="s">
         <v>179</v>
       </c>
-      <c r="S10" s="195"/>
-      <c r="T10" s="195"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P11" s="136"/>
@@ -44593,8 +44065,8 @@
       <c r="R11" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="S11" s="195"/>
-      <c r="T11" s="195"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P12" s="136"/>
@@ -44602,8 +44074,8 @@
       <c r="R12" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="S12" s="195"/>
-      <c r="T12" s="195"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
@@ -44645,8 +44117,8 @@
       <c r="R13" s="183" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -44690,10 +44162,10 @@
       <c r="R14" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="S14" s="195">
+      <c r="S14" s="194">
         <v>2003</v>
       </c>
-      <c r="T14" s="195"/>
+      <c r="T14" s="194"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -44737,8 +44209,8 @@
       <c r="R15" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -44782,10 +44254,10 @@
       <c r="R16" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S16" s="195">
+      <c r="S16" s="194">
         <v>2004</v>
       </c>
-      <c r="T16" s="195"/>
+      <c r="T16" s="194"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -44829,8 +44301,8 @@
       <c r="R17" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -44874,8 +44346,8 @@
       <c r="R18" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -44919,10 +44391,10 @@
       <c r="R19" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="193">
+      <c r="S19" s="195">
         <v>2005</v>
       </c>
-      <c r="T19" s="193"/>
+      <c r="T19" s="195"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -44966,10 +44438,10 @@
       <c r="R20" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S20" s="193">
+      <c r="S20" s="195">
         <v>2006</v>
       </c>
-      <c r="T20" s="193"/>
+      <c r="T20" s="195"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -45014,10 +44486,10 @@
       <c r="R21" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="S21" s="195">
+      <c r="S21" s="194">
         <v>2005</v>
       </c>
-      <c r="T21" s="195"/>
+      <c r="T21" s="194"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -45061,8 +44533,8 @@
       <c r="R22" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S22" s="195"/>
-      <c r="T22" s="195"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -45106,10 +44578,10 @@
       <c r="R23" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="S23" s="195">
+      <c r="S23" s="194">
         <v>2006</v>
       </c>
-      <c r="T23" s="195"/>
+      <c r="T23" s="194"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -45153,8 +44625,8 @@
       <c r="R24" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -45198,8 +44670,8 @@
       <c r="R25" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -45243,10 +44715,10 @@
       <c r="R26" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S26" s="195">
+      <c r="S26" s="194">
         <v>2007</v>
       </c>
-      <c r="T26" s="195"/>
+      <c r="T26" s="194"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -45290,8 +44762,8 @@
       <c r="R27" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -45335,10 +44807,10 @@
       <c r="R28" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="S28" s="195">
+      <c r="S28" s="194">
         <v>2008</v>
       </c>
-      <c r="T28" s="195"/>
+      <c r="T28" s="194"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="185"/>
@@ -45357,8 +44829,8 @@
       <c r="R29" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="S29" s="195"/>
-      <c r="T29" s="195"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P30" s="136"/>
@@ -45366,8 +44838,8 @@
       <c r="R30" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="S30" s="195"/>
-      <c r="T30" s="195"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P31" s="136"/>
@@ -45375,8 +44847,8 @@
       <c r="R31" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S31" s="195"/>
-      <c r="T31" s="195"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P32" s="136"/>
@@ -45384,8 +44856,8 @@
       <c r="R32" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="195"/>
-      <c r="T32" s="195"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
     </row>
     <row r="33" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P33" s="136"/>
@@ -45393,8 +44865,8 @@
       <c r="R33" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="S33" s="195"/>
-      <c r="T33" s="195"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
     </row>
     <row r="34" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P34" s="136"/>
@@ -45402,10 +44874,10 @@
       <c r="R34" s="178" t="s">
         <v>211</v>
       </c>
-      <c r="S34" s="195">
+      <c r="S34" s="194">
         <v>2009</v>
       </c>
-      <c r="T34" s="195"/>
+      <c r="T34" s="194"/>
     </row>
     <row r="35" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P35" s="136"/>
@@ -45413,8 +44885,8 @@
       <c r="R35" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="S35" s="195"/>
-      <c r="T35" s="195"/>
+      <c r="S35" s="194"/>
+      <c r="T35" s="194"/>
     </row>
     <row r="36" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P36" s="136"/>
@@ -45422,10 +44894,10 @@
       <c r="R36" s="177" t="s">
         <v>201</v>
       </c>
-      <c r="S36" s="193">
+      <c r="S36" s="195">
         <v>2011</v>
       </c>
-      <c r="T36" s="193"/>
+      <c r="T36" s="195"/>
     </row>
     <row r="37" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P37" s="136"/>
@@ -45433,10 +44905,10 @@
       <c r="R37" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="S37" s="195">
+      <c r="S37" s="194">
         <v>2012</v>
       </c>
-      <c r="T37" s="195"/>
+      <c r="T37" s="194"/>
     </row>
     <row r="38" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P38" s="136"/>
@@ -45444,10 +44916,10 @@
       <c r="R38" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="S38" s="195">
+      <c r="S38" s="194">
         <v>2013</v>
       </c>
-      <c r="T38" s="195"/>
+      <c r="T38" s="194"/>
     </row>
     <row r="39" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P39" s="136"/>
@@ -45455,8 +44927,8 @@
       <c r="R39" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="S39" s="195"/>
-      <c r="T39" s="195"/>
+      <c r="S39" s="194"/>
+      <c r="T39" s="194"/>
     </row>
     <row r="40" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O40" s="187"/>
@@ -45465,10 +44937,10 @@
       <c r="R40" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="S40" s="195">
+      <c r="S40" s="194">
         <v>2012</v>
       </c>
-      <c r="T40" s="195"/>
+      <c r="T40" s="194"/>
     </row>
     <row r="41" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P41" s="136"/>
@@ -45476,10 +44948,10 @@
       <c r="R41" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S41" s="193">
+      <c r="S41" s="195">
         <v>2014</v>
       </c>
-      <c r="T41" s="193"/>
+      <c r="T41" s="195"/>
     </row>
     <row r="42" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P42" s="136"/>
@@ -45487,10 +44959,10 @@
       <c r="R42" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="S42" s="193">
+      <c r="S42" s="195">
         <v>2015</v>
       </c>
-      <c r="T42" s="193"/>
+      <c r="T42" s="195"/>
     </row>
     <row r="43" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P43" s="136"/>
@@ -45498,13 +44970,23 @@
       <c r="R43" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S43" s="193">
+      <c r="S43" s="195">
         <v>2017</v>
       </c>
-      <c r="T43" s="193"/>
+      <c r="T43" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="S9:T13"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="S16:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="S23:T25"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="S28:T33"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="S43:T43"/>
@@ -45513,16 +44995,6 @@
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="S38:T39"/>
     <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="S23:T25"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="S28:T33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="S9:T13"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="S16:T18"/>
-    <mergeCell ref="S19:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -45667,10 +45139,10 @@
       <c r="M11" s="137">
         <v>37530</v>
       </c>
-      <c r="N11" s="195">
+      <c r="N11" s="194">
         <v>2002</v>
       </c>
-      <c r="O11" s="195"/>
+      <c r="O11" s="194"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
@@ -45696,8 +45168,8 @@
       <c r="M12" s="137">
         <v>37349</v>
       </c>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
@@ -45723,8 +45195,8 @@
       <c r="M13" s="137">
         <v>37407</v>
       </c>
-      <c r="N13" s="195"/>
-      <c r="O13" s="195"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
@@ -45750,8 +45222,8 @@
       <c r="M14" s="137">
         <v>37420</v>
       </c>
-      <c r="N14" s="195"/>
-      <c r="O14" s="195"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
@@ -45777,8 +45249,8 @@
       <c r="M15" s="137">
         <v>37438</v>
       </c>
-      <c r="N15" s="195"/>
-      <c r="O15" s="195"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
@@ -45804,10 +45276,10 @@
       <c r="M16" s="137">
         <v>37623</v>
       </c>
-      <c r="N16" s="195">
+      <c r="N16" s="194">
         <v>2003</v>
       </c>
-      <c r="O16" s="195"/>
+      <c r="O16" s="194"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
@@ -45833,8 +45305,8 @@
       <c r="M17" s="137">
         <v>37819</v>
       </c>
-      <c r="N17" s="195"/>
-      <c r="O17" s="195"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
@@ -45860,10 +45332,10 @@
       <c r="M18" s="137">
         <v>38022</v>
       </c>
-      <c r="N18" s="195">
+      <c r="N18" s="194">
         <v>2004</v>
       </c>
-      <c r="O18" s="195"/>
+      <c r="O18" s="194"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
@@ -45889,8 +45361,8 @@
       <c r="M19" s="137">
         <v>38225</v>
       </c>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
@@ -45916,8 +45388,8 @@
       <c r="M20" s="137">
         <v>38203</v>
       </c>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
@@ -45943,10 +45415,10 @@
       <c r="M21" s="137">
         <v>38366</v>
       </c>
-      <c r="N21" s="193">
+      <c r="N21" s="195">
         <v>2005</v>
       </c>
-      <c r="O21" s="193"/>
+      <c r="O21" s="195"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
@@ -45972,10 +45444,10 @@
       <c r="M22" s="137">
         <v>38959</v>
       </c>
-      <c r="N22" s="193">
+      <c r="N22" s="195">
         <v>2006</v>
       </c>
-      <c r="O22" s="193"/>
+      <c r="O22" s="195"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
@@ -46001,10 +45473,10 @@
       <c r="M23" s="137">
         <v>38530</v>
       </c>
-      <c r="N23" s="195">
+      <c r="N23" s="194">
         <v>2005</v>
       </c>
-      <c r="O23" s="195"/>
+      <c r="O23" s="194"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
@@ -46030,8 +45502,8 @@
       <c r="M24" s="137">
         <v>38546</v>
       </c>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
@@ -46057,10 +45529,10 @@
       <c r="M25" s="137">
         <v>39042</v>
       </c>
-      <c r="N25" s="195">
+      <c r="N25" s="194">
         <v>2006</v>
       </c>
-      <c r="O25" s="195"/>
+      <c r="O25" s="194"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
@@ -46086,8 +45558,8 @@
       <c r="M26" s="137">
         <v>38748</v>
       </c>
-      <c r="N26" s="195"/>
-      <c r="O26" s="195"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
@@ -46113,8 +45585,8 @@
       <c r="M27" s="137">
         <v>38930</v>
       </c>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G28" s="136"/>
@@ -46130,10 +45602,10 @@
       <c r="M28" s="137">
         <v>39146</v>
       </c>
-      <c r="N28" s="195">
+      <c r="N28" s="194">
         <v>2007</v>
       </c>
-      <c r="O28" s="195"/>
+      <c r="O28" s="194"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G29" s="136"/>
@@ -46149,8 +45621,8 @@
       <c r="M29" s="137">
         <v>39191</v>
       </c>
-      <c r="N29" s="195"/>
-      <c r="O29" s="195"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G30" s="136"/>
@@ -46166,10 +45638,10 @@
       <c r="M30" s="137">
         <v>39451</v>
       </c>
-      <c r="N30" s="195">
+      <c r="N30" s="194">
         <v>2008</v>
       </c>
-      <c r="O30" s="195"/>
+      <c r="O30" s="194"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G31" s="136"/>
@@ -46185,8 +45657,8 @@
       <c r="M31" s="137">
         <v>39581</v>
       </c>
-      <c r="N31" s="195"/>
-      <c r="O31" s="195"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G32" s="136"/>
@@ -46202,8 +45674,8 @@
       <c r="M32" s="137">
         <v>39581</v>
       </c>
-      <c r="N32" s="195"/>
-      <c r="O32" s="195"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="136"/>
@@ -46219,8 +45691,8 @@
       <c r="M33" s="137">
         <v>39720</v>
       </c>
-      <c r="N33" s="195"/>
-      <c r="O33" s="195"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="136"/>
@@ -46236,8 +45708,8 @@
       <c r="M34" s="137">
         <v>39720</v>
       </c>
-      <c r="N34" s="195"/>
-      <c r="O34" s="195"/>
+      <c r="N34" s="194"/>
+      <c r="O34" s="194"/>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="136"/>
@@ -46253,8 +45725,8 @@
       <c r="M35" s="137">
         <v>39661</v>
       </c>
-      <c r="N35" s="195"/>
-      <c r="O35" s="195"/>
+      <c r="N35" s="194"/>
+      <c r="O35" s="194"/>
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="136"/>
@@ -46270,10 +45742,10 @@
       <c r="M36" s="137">
         <v>39919</v>
       </c>
-      <c r="N36" s="195">
+      <c r="N36" s="194">
         <v>2009</v>
       </c>
-      <c r="O36" s="195"/>
+      <c r="O36" s="194"/>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="136"/>
@@ -46289,8 +45761,8 @@
       <c r="M37" s="137">
         <v>40016</v>
       </c>
-      <c r="N37" s="195"/>
-      <c r="O37" s="195"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="136"/>
@@ -46306,10 +45778,10 @@
       <c r="M38" s="137">
         <v>40905</v>
       </c>
-      <c r="N38" s="193">
+      <c r="N38" s="195">
         <v>2011</v>
       </c>
-      <c r="O38" s="193"/>
+      <c r="O38" s="195"/>
     </row>
     <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="136"/>
@@ -46325,10 +45797,10 @@
       <c r="M39" s="137">
         <v>41262</v>
       </c>
-      <c r="N39" s="195">
+      <c r="N39" s="194">
         <v>2012</v>
       </c>
-      <c r="O39" s="195"/>
+      <c r="O39" s="194"/>
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="136"/>
@@ -46344,10 +45816,10 @@
       <c r="M40" s="137">
         <v>41452</v>
       </c>
-      <c r="N40" s="195">
+      <c r="N40" s="194">
         <v>2013</v>
       </c>
-      <c r="O40" s="195"/>
+      <c r="O40" s="194"/>
     </row>
     <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="136"/>
@@ -46363,8 +45835,8 @@
       <c r="M41" s="137">
         <v>41626</v>
       </c>
-      <c r="N41" s="195"/>
-      <c r="O41" s="195"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="194"/>
     </row>
     <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="136"/>
@@ -46380,10 +45852,10 @@
       <c r="M42" s="137">
         <v>41232</v>
       </c>
-      <c r="N42" s="195">
+      <c r="N42" s="194">
         <v>2012</v>
       </c>
-      <c r="O42" s="195"/>
+      <c r="O42" s="194"/>
     </row>
     <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="136"/>
@@ -46399,10 +45871,10 @@
       <c r="M43" s="137">
         <v>41648</v>
       </c>
-      <c r="N43" s="193">
+      <c r="N43" s="195">
         <v>2014</v>
       </c>
-      <c r="O43" s="193"/>
+      <c r="O43" s="195"/>
     </row>
     <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="136"/>
@@ -46418,10 +45890,10 @@
       <c r="M44" s="137">
         <v>42206</v>
       </c>
-      <c r="N44" s="193">
+      <c r="N44" s="195">
         <v>2015</v>
       </c>
-      <c r="O44" s="193"/>
+      <c r="O44" s="195"/>
     </row>
     <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="136"/>
@@ -46437,13 +45909,23 @@
       <c r="M45" s="137">
         <v>42762</v>
       </c>
-      <c r="N45" s="193">
+      <c r="N45" s="195">
         <v>2017</v>
       </c>
-      <c r="O45" s="193"/>
+      <c r="O45" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N11:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="N18:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="N25:O27"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="N30:O35"/>
+    <mergeCell ref="N36:O37"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="N38:O38"/>
@@ -46451,22 +45933,27 @@
     <mergeCell ref="N40:O41"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="N25:O27"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="N30:O35"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="N11:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="N18:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007D2ED3CE96C13443B502633C8A95469B" ma:contentTypeVersion="0" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f85a63a8cdffcff2cdbd17d1e9b5509e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65db0ef88017f3ca28aa19d4b0cf03fd">
     <xsd:element name="properties">
@@ -46580,32 +46067,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A39FDF-C457-4548-8697-F5437199888F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE61A5F-1B74-41D4-8972-B6BB4CEE3AA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -46620,9 +46085,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE61A5F-1B74-41D4-8972-B6BB4CEE3AA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A39FDF-C457-4548-8697-F5437199888F}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
